--- a/Arduino-Leonardo/Calibration/dataDana/DanaCheck.xlsx
+++ b/Arduino-Leonardo/Calibration/dataDana/DanaCheck.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27109"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81F6C071-30EF-4DCE-9579-1B24DCE4CDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05733318-D525-4874-A02C-A58392F777B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllData" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="99">
   <si>
     <t>Session</t>
   </si>
@@ -750,7 +750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -820,32 +820,31 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1160,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241930DC-D63A-422B-B0AB-064E86CAB3E6}">
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="F102" sqref="F102:I116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1216,20 +1215,16 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
-        <f>Sheet1!T2</f>
+      <c r="F2" s="38">
         <v>30</v>
       </c>
-      <c r="G2">
-        <f>Sheet1!U2</f>
+      <c r="G2" s="38">
         <v>139</v>
       </c>
-      <c r="H2">
-        <f>Sheet1!V2</f>
+      <c r="H2" s="38">
         <v>255</v>
       </c>
-      <c r="I2">
-        <f>Sheet1!W2</f>
+      <c r="I2" s="38">
         <v>0.60199999999999998</v>
       </c>
     </row>
@@ -1249,20 +1244,16 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3">
-        <f>Sheet1!T3</f>
+      <c r="F3" s="38">
         <v>30</v>
       </c>
-      <c r="G3">
-        <f>Sheet1!U3</f>
+      <c r="G3" s="38">
         <v>138</v>
       </c>
-      <c r="H3">
-        <f>Sheet1!V3</f>
+      <c r="H3" s="38">
         <v>181</v>
       </c>
-      <c r="I3">
-        <f>Sheet1!W3</f>
+      <c r="I3" s="38">
         <v>0.60499999999999998</v>
       </c>
     </row>
@@ -1282,20 +1273,16 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4">
-        <f>Sheet1!T4</f>
+      <c r="F4" s="38">
         <v>30</v>
       </c>
-      <c r="G4">
-        <f>Sheet1!U4</f>
+      <c r="G4" s="38">
         <v>139</v>
       </c>
-      <c r="H4">
-        <f>Sheet1!V4</f>
+      <c r="H4" s="38">
         <v>170</v>
       </c>
-      <c r="I4">
-        <f>Sheet1!W4</f>
+      <c r="I4" s="38">
         <v>0.60299999999999998</v>
       </c>
     </row>
@@ -1315,20 +1302,16 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5">
-        <f>Sheet1!T5</f>
+      <c r="F5" s="38">
         <v>30</v>
       </c>
-      <c r="G5">
-        <f>Sheet1!U5</f>
+      <c r="G5" s="38">
         <v>139</v>
       </c>
-      <c r="H5">
-        <f>Sheet1!V5</f>
+      <c r="H5" s="38">
         <v>194</v>
       </c>
-      <c r="I5">
-        <f>Sheet1!W5</f>
+      <c r="I5" s="38">
         <v>0.60299999999999998</v>
       </c>
     </row>
@@ -1348,20 +1331,16 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="F6">
-        <f>Sheet1!T6</f>
+      <c r="F6" s="45">
         <v>30</v>
       </c>
-      <c r="G6">
-        <f>Sheet1!U6</f>
+      <c r="G6" s="45">
         <v>139</v>
       </c>
-      <c r="H6">
-        <f>Sheet1!V6</f>
+      <c r="H6" s="45">
         <v>157</v>
       </c>
-      <c r="I6">
-        <f>Sheet1!W6</f>
+      <c r="I6" s="45">
         <v>0.60299999999999998</v>
       </c>
     </row>
@@ -1370,3767 +1349,4057 @@
         <v>2</v>
       </c>
       <c r="B7">
+        <v>2022</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="38">
+        <v>30</v>
+      </c>
+      <c r="G7" s="38">
+        <v>143</v>
+      </c>
+      <c r="H7" s="38">
+        <v>163</v>
+      </c>
+      <c r="I7" s="38">
+        <v>0.59099999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>2022</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="38">
+        <v>30</v>
+      </c>
+      <c r="G8" s="38">
+        <v>138</v>
+      </c>
+      <c r="H8" s="38">
+        <v>207</v>
+      </c>
+      <c r="I8" s="38">
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2022</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="38">
+        <v>30</v>
+      </c>
+      <c r="G9" s="38">
+        <v>139</v>
+      </c>
+      <c r="H9" s="38">
+        <v>169</v>
+      </c>
+      <c r="I9" s="38">
+        <v>0.60299999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>2022</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="38">
+        <v>30</v>
+      </c>
+      <c r="G10" s="38">
+        <v>143</v>
+      </c>
+      <c r="H10" s="38">
+        <v>178</v>
+      </c>
+      <c r="I10" s="38">
+        <v>0.59199999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2022</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="45">
+        <v>30</v>
+      </c>
+      <c r="G11" s="45">
+        <v>141</v>
+      </c>
+      <c r="H11" s="45">
+        <v>158</v>
+      </c>
+      <c r="I11" s="45">
+        <v>0.59799999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>2022</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="38">
+        <v>29</v>
+      </c>
+      <c r="G12" s="38">
+        <v>145</v>
+      </c>
+      <c r="H12" s="38">
+        <v>138</v>
+      </c>
+      <c r="I12" s="38">
+        <v>0.58699999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>2022</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="38">
+        <v>30</v>
+      </c>
+      <c r="G13" s="38">
+        <v>143</v>
+      </c>
+      <c r="H13" s="38">
+        <v>141</v>
+      </c>
+      <c r="I13" s="38">
+        <v>0.59099999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>2022</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="38">
+        <v>30</v>
+      </c>
+      <c r="G14" s="38">
+        <v>141</v>
+      </c>
+      <c r="H14" s="38">
+        <v>162</v>
+      </c>
+      <c r="I14" s="38">
+        <v>0.59599999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>2022</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="38">
+        <v>30</v>
+      </c>
+      <c r="G15" s="38">
+        <v>143</v>
+      </c>
+      <c r="H15" s="38">
+        <v>153</v>
+      </c>
+      <c r="I15" s="43">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>2022</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="45">
+        <v>29</v>
+      </c>
+      <c r="G16" s="45">
+        <v>144</v>
+      </c>
+      <c r="H16" s="45">
+        <v>163</v>
+      </c>
+      <c r="I16" s="45">
+        <v>0.58899999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
         <f>Sheet2!R2</f>
         <v>2023</v>
       </c>
-      <c r="C7">
+      <c r="C17">
         <f>Sheet2!S2</f>
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="D17">
         <f>Sheet2!T2</f>
         <v>27</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E17" t="str">
         <f>Sheet2!Q2</f>
         <v>Best</v>
       </c>
-      <c r="F7">
+      <c r="F17">
         <f>Sheet2!AI2</f>
         <v>30</v>
       </c>
-      <c r="G7">
+      <c r="G17">
         <f>Sheet2!AJ2</f>
         <v>143</v>
       </c>
-      <c r="H7">
+      <c r="H17">
         <f>Sheet2!AK2</f>
         <v>131</v>
       </c>
-      <c r="I7">
+      <c r="I17">
         <f>Sheet2!AL2</f>
         <v>0.59199999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
         <f>Sheet2!R3</f>
         <v>2023</v>
       </c>
-      <c r="C8">
+      <c r="C18">
         <f>Sheet2!S3</f>
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D18">
         <f>Sheet2!T3</f>
         <v>27</v>
       </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8">
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18">
         <f>Sheet2!AI3</f>
         <v>28</v>
       </c>
-      <c r="G8">
+      <c r="G18">
         <f>Sheet2!AJ3</f>
         <v>157</v>
       </c>
-      <c r="H8">
+      <c r="H18">
         <f>Sheet2!AK3</f>
         <v>131</v>
       </c>
-      <c r="I8">
+      <c r="I18">
         <f>Sheet2!AL3</f>
         <v>0.55200000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
         <f>Sheet2!R4</f>
         <v>2023</v>
       </c>
-      <c r="C9">
+      <c r="C19">
         <f>Sheet2!S4</f>
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="D19">
         <f>Sheet2!T4</f>
         <v>27</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E19" t="s">
         <v>6</v>
       </c>
-      <c r="F9">
+      <c r="F19">
         <f>Sheet2!AI4</f>
         <v>30</v>
       </c>
-      <c r="G9">
+      <c r="G19">
         <f>Sheet2!AJ4</f>
         <v>143</v>
       </c>
-      <c r="H9">
+      <c r="H19">
         <f>Sheet2!AK4</f>
         <v>131</v>
       </c>
-      <c r="I9">
+      <c r="I19">
         <f>Sheet2!AL4</f>
         <v>0.59199999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
         <f>Sheet2!R5</f>
         <v>2023</v>
       </c>
-      <c r="C10">
+      <c r="C20">
         <f>Sheet2!S5</f>
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="D20">
         <f>Sheet2!T5</f>
         <v>27</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E20" t="str">
         <f>Sheet2!Q5</f>
         <v>Best</v>
       </c>
-      <c r="F10">
+      <c r="F20">
         <f>Sheet2!AI5</f>
         <v>31</v>
       </c>
-      <c r="G10">
+      <c r="G20">
         <f>Sheet2!AJ5</f>
         <v>131</v>
       </c>
-      <c r="H10">
+      <c r="H20">
         <f>Sheet2!AK5</f>
         <v>115</v>
       </c>
-      <c r="I10">
+      <c r="I20">
         <f>Sheet2!AL5</f>
         <v>0.626</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
         <f>Sheet2!R6</f>
         <v>2023</v>
       </c>
-      <c r="C11">
+      <c r="C21">
         <f>Sheet2!S6</f>
         <v>1</v>
       </c>
-      <c r="D11">
+      <c r="D21">
         <f>Sheet2!T6</f>
         <v>27</v>
       </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11">
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21">
         <f>Sheet2!AI6</f>
         <v>31</v>
       </c>
-      <c r="G11">
+      <c r="G21">
         <f>Sheet2!AJ6</f>
         <v>130</v>
       </c>
-      <c r="H11">
+      <c r="H21">
         <f>Sheet2!AK6</f>
         <v>115</v>
       </c>
-      <c r="I11">
+      <c r="I21">
         <f>Sheet2!AL6</f>
         <v>0.63</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
         <f>Sheet2!R7</f>
         <v>2023</v>
       </c>
-      <c r="C12">
+      <c r="C22">
         <f>Sheet2!S7</f>
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="D22">
         <f>Sheet2!T7</f>
         <v>27</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E22" t="s">
         <v>6</v>
       </c>
-      <c r="F12">
+      <c r="F22">
         <f>Sheet2!AI7</f>
         <v>28</v>
       </c>
-      <c r="G12">
+      <c r="G22">
         <f>Sheet2!AJ7</f>
         <v>153</v>
       </c>
-      <c r="H12">
+      <c r="H22">
         <f>Sheet2!AK7</f>
         <v>115</v>
       </c>
-      <c r="I12">
+      <c r="I22">
         <f>Sheet2!AL7</f>
         <v>0.56200000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
         <f>Sheet2!R8</f>
         <v>2023</v>
       </c>
-      <c r="C13">
+      <c r="C23">
         <f>Sheet2!S8</f>
         <v>1</v>
       </c>
-      <c r="D13">
+      <c r="D23">
         <f>Sheet2!T8</f>
         <v>27</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E23" t="str">
         <f>Sheet2!Q8</f>
         <v>Best</v>
       </c>
-      <c r="F13">
+      <c r="F23">
         <f>Sheet2!AI8</f>
         <v>29</v>
       </c>
-      <c r="G13">
+      <c r="G23">
         <f>Sheet2!AJ8</f>
         <v>145</v>
       </c>
-      <c r="H13">
+      <c r="H23">
         <f>Sheet2!AK8</f>
         <v>135</v>
       </c>
-      <c r="I13">
+      <c r="I23">
         <f>Sheet2!AL8</f>
         <v>0.58499999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
         <f>Sheet2!R9</f>
         <v>2023</v>
       </c>
-      <c r="C14">
+      <c r="C24">
         <f>Sheet2!S9</f>
         <v>1</v>
       </c>
-      <c r="D14">
+      <c r="D24">
         <f>Sheet2!T9</f>
         <v>27</v>
       </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14">
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24">
         <f>Sheet2!AI9</f>
         <v>29</v>
       </c>
-      <c r="G14">
+      <c r="G24">
         <f>Sheet2!AJ9</f>
         <v>145</v>
       </c>
-      <c r="H14">
+      <c r="H24">
         <f>Sheet2!AK9</f>
         <v>135</v>
       </c>
-      <c r="I14">
+      <c r="I24">
         <f>Sheet2!AL9</f>
         <v>0.58499999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
         <f>Sheet2!R10</f>
         <v>2023</v>
       </c>
-      <c r="C15">
+      <c r="C25">
         <f>Sheet2!S10</f>
         <v>1</v>
       </c>
-      <c r="D15">
+      <c r="D25">
         <f>Sheet2!T10</f>
         <v>27</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E25" t="s">
         <v>6</v>
       </c>
-      <c r="F15">
+      <c r="F25">
         <f>Sheet2!AI10</f>
         <v>29</v>
       </c>
-      <c r="G15">
+      <c r="G25">
         <f>Sheet2!AJ10</f>
         <v>145</v>
       </c>
-      <c r="H15">
+      <c r="H25">
         <f>Sheet2!AK10</f>
         <v>135</v>
       </c>
-      <c r="I15">
+      <c r="I25">
         <f>Sheet2!AL10</f>
         <v>0.58499999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16">
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
         <f>Sheet2!R11</f>
         <v>2023</v>
       </c>
-      <c r="C16">
+      <c r="C26">
         <f>Sheet2!S11</f>
         <v>1</v>
       </c>
-      <c r="D16">
+      <c r="D26">
         <f>Sheet2!T11</f>
         <v>27</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E26" t="str">
         <f>Sheet2!Q11</f>
         <v>Best</v>
       </c>
-      <c r="F16">
+      <c r="F26">
         <f>Sheet2!AI11</f>
         <v>30</v>
       </c>
-      <c r="G16">
+      <c r="G26">
         <f>Sheet2!AJ11</f>
         <v>143</v>
       </c>
-      <c r="H16">
+      <c r="H26">
         <f>Sheet2!AK11</f>
         <v>165</v>
       </c>
-      <c r="I16">
+      <c r="I26">
         <f>Sheet2!AL11</f>
         <v>0.59199999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17">
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
         <f>Sheet2!R12</f>
         <v>2023</v>
       </c>
-      <c r="C17">
+      <c r="C27">
         <f>Sheet2!S12</f>
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="D27">
         <f>Sheet2!T12</f>
         <v>27</v>
       </c>
-      <c r="E17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17">
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27">
         <f>Sheet2!AI12</f>
         <v>30</v>
       </c>
-      <c r="G17">
+      <c r="G27">
         <f>Sheet2!AJ12</f>
         <v>143</v>
       </c>
-      <c r="H17">
+      <c r="H27">
         <f>Sheet2!AK12</f>
         <v>145</v>
       </c>
-      <c r="I17">
+      <c r="I27">
         <f>Sheet2!AL12</f>
         <v>0.59199999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18">
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
         <f>Sheet2!R13</f>
         <v>2023</v>
       </c>
-      <c r="C18">
+      <c r="C28">
         <f>Sheet2!S13</f>
         <v>1</v>
       </c>
-      <c r="D18">
+      <c r="D28">
         <f>Sheet2!T13</f>
         <v>27</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E28" t="s">
         <v>6</v>
       </c>
-      <c r="F18">
+      <c r="F28">
         <f>Sheet2!AI13</f>
         <v>28</v>
       </c>
-      <c r="G18">
+      <c r="G28">
         <f>Sheet2!AJ13</f>
         <v>157</v>
       </c>
-      <c r="H18">
+      <c r="H28">
         <f>Sheet2!AK13</f>
         <v>145</v>
       </c>
-      <c r="I18">
+      <c r="I28">
         <f>Sheet2!AL13</f>
         <v>0.55200000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19">
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
         <f>Sheet2!R14</f>
         <v>2023</v>
       </c>
-      <c r="C19">
+      <c r="C29">
         <f>Sheet2!S14</f>
         <v>1</v>
       </c>
-      <c r="D19">
+      <c r="D29">
         <f>Sheet2!T14</f>
         <v>27</v>
       </c>
-      <c r="E19" t="str">
+      <c r="E29" t="str">
         <f>Sheet2!Q14</f>
         <v>Best</v>
       </c>
-      <c r="F19">
+      <c r="F29">
         <f>Sheet2!AI14</f>
         <v>30</v>
       </c>
-      <c r="G19">
+      <c r="G29">
         <f>Sheet2!AJ14</f>
         <v>143</v>
       </c>
-      <c r="H19">
+      <c r="H29">
         <f>Sheet2!AK14</f>
         <v>231</v>
       </c>
-      <c r="I19">
+      <c r="I29">
         <f>Sheet2!AL14</f>
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20">
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
         <f>Sheet2!R15</f>
         <v>2023</v>
       </c>
-      <c r="C20">
+      <c r="C30">
         <f>Sheet2!S15</f>
         <v>1</v>
       </c>
-      <c r="D20">
+      <c r="D30">
         <f>Sheet2!T15</f>
         <v>27</v>
       </c>
-      <c r="E20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20">
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30">
         <f>Sheet2!AI15</f>
         <v>31</v>
       </c>
-      <c r="G20">
+      <c r="G30">
         <f>Sheet2!AJ15</f>
         <v>136</v>
       </c>
-      <c r="H20">
+      <c r="H30">
         <f>Sheet2!AK15</f>
         <v>161</v>
       </c>
-      <c r="I20">
+      <c r="I30">
         <f>Sheet2!AL15</f>
         <v>0.61099999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21">
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
         <f>Sheet2!R16</f>
         <v>2023</v>
       </c>
-      <c r="C21">
+      <c r="C31">
         <f>Sheet2!S16</f>
         <v>1</v>
       </c>
-      <c r="D21">
+      <c r="D31">
         <f>Sheet2!T16</f>
         <v>27</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E31" t="s">
         <v>6</v>
       </c>
-      <c r="F21">
+      <c r="F31">
         <f>Sheet2!AI16</f>
         <v>28</v>
       </c>
-      <c r="G21">
+      <c r="G31">
         <f>Sheet2!AJ16</f>
         <v>157</v>
       </c>
-      <c r="H21">
+      <c r="H31">
         <f>Sheet2!AK16</f>
         <v>161</v>
       </c>
-      <c r="I21">
+      <c r="I31">
         <f>Sheet2!AL16</f>
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22">
-        <v>2023</v>
-      </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
-      <c r="D22">
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>2023</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
         <v>11</v>
       </c>
-      <c r="E22" t="str">
+      <c r="E32" t="str">
         <f>Sheet3!D17</f>
         <v>Best</v>
       </c>
-      <c r="F22">
+      <c r="F32">
         <f>Sheet3!F17</f>
         <v>32</v>
       </c>
-      <c r="G22">
+      <c r="G32">
         <f>Sheet3!G17</f>
         <v>126</v>
       </c>
-      <c r="H22">
+      <c r="H32">
         <f>Sheet3!H17</f>
         <v>120</v>
       </c>
-      <c r="I22">
+      <c r="I32">
         <f>Sheet3!I17</f>
         <v>0.64078000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23">
-        <v>2023</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23">
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>2023</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
         <v>11</v>
       </c>
-      <c r="E23" t="str">
+      <c r="E33" t="str">
         <f>Sheet3!D18</f>
         <v>Midpoint</v>
       </c>
-      <c r="F23">
+      <c r="F33">
         <f>Sheet3!F18</f>
         <v>32</v>
       </c>
-      <c r="G23">
+      <c r="G33">
         <f>Sheet3!G18</f>
         <v>126</v>
       </c>
-      <c r="H23">
+      <c r="H33">
         <f>Sheet3!H18</f>
         <v>120</v>
       </c>
-      <c r="I23">
+      <c r="I33">
         <f>Sheet3!I18</f>
         <v>0.63978000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24">
-        <v>2023</v>
-      </c>
-      <c r="C24">
-        <v>5</v>
-      </c>
-      <c r="D24">
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>2023</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
         <v>11</v>
       </c>
-      <c r="E24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24">
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34">
         <f>Sheet3!F19</f>
         <v>33</v>
       </c>
-      <c r="G24">
+      <c r="G34">
         <f>Sheet3!G19</f>
         <v>122</v>
       </c>
-      <c r="H24">
+      <c r="H34">
         <f>Sheet3!H19</f>
         <v>120</v>
       </c>
-      <c r="I24">
+      <c r="I34">
         <f>Sheet3!I19</f>
         <v>0.65178000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25">
-        <v>2023</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="D25">
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>2023</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
         <v>11</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E35" t="s">
         <v>6</v>
       </c>
-      <c r="F25">
+      <c r="F35">
         <f>Sheet3!F20</f>
         <v>31</v>
       </c>
-      <c r="G25">
+      <c r="G35">
         <f>Sheet3!G20</f>
         <v>130</v>
       </c>
-      <c r="H25">
+      <c r="H35">
         <f>Sheet3!H20</f>
         <v>120</v>
       </c>
-      <c r="I25">
+      <c r="I35">
         <f>Sheet3!I20</f>
         <v>0.62778</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26">
-        <v>3</v>
-      </c>
-      <c r="B26">
-        <v>2023</v>
-      </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-      <c r="D26">
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>2023</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
         <v>11</v>
       </c>
-      <c r="E26" t="str">
+      <c r="E36" t="str">
         <f>Sheet3!D21</f>
         <v>Best</v>
       </c>
-      <c r="F26">
+      <c r="F36">
         <f>Sheet3!F21</f>
         <v>32</v>
       </c>
-      <c r="G26">
+      <c r="G36">
         <f>Sheet3!G21</f>
         <v>128</v>
       </c>
-      <c r="H26">
+      <c r="H36">
         <f>Sheet3!H21</f>
         <v>126</v>
       </c>
-      <c r="I26">
+      <c r="I36">
         <f>Sheet3!I21</f>
         <v>0.63341999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27">
-        <v>3</v>
-      </c>
-      <c r="B27">
-        <v>2023</v>
-      </c>
-      <c r="C27">
-        <v>5</v>
-      </c>
-      <c r="D27">
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>2023</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
         <v>11</v>
       </c>
-      <c r="E27" t="str">
+      <c r="E37" t="str">
         <f>Sheet3!D22</f>
         <v>Midpoint</v>
       </c>
-      <c r="F27">
+      <c r="F37">
         <f>Sheet3!F22</f>
         <v>32</v>
       </c>
-      <c r="G27">
+      <c r="G37">
         <f>Sheet3!G22</f>
         <v>127.5</v>
       </c>
-      <c r="H27">
+      <c r="H37">
         <f>Sheet3!H22</f>
         <v>126</v>
       </c>
-      <c r="I27">
+      <c r="I37">
         <f>Sheet3!I22</f>
         <v>0.63641999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28">
-        <v>3</v>
-      </c>
-      <c r="B28">
-        <v>2023</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28">
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>2023</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
         <v>11</v>
       </c>
-      <c r="E28" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28">
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38">
         <f>Sheet3!F23</f>
         <v>33</v>
       </c>
-      <c r="G28">
+      <c r="G38">
         <f>Sheet3!G23</f>
         <v>122</v>
       </c>
-      <c r="H28">
+      <c r="H38">
         <f>Sheet3!H23</f>
         <v>126</v>
       </c>
-      <c r="I28">
+      <c r="I38">
         <f>Sheet3!I23</f>
         <v>0.65242</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29">
-        <v>3</v>
-      </c>
-      <c r="B29">
-        <v>2023</v>
-      </c>
-      <c r="C29">
-        <v>5</v>
-      </c>
-      <c r="D29">
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>2023</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
         <v>11</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E39" t="s">
         <v>6</v>
       </c>
-      <c r="F29">
+      <c r="F39">
         <f>Sheet3!F24</f>
         <v>31</v>
       </c>
-      <c r="G29">
+      <c r="G39">
         <f>Sheet3!G24</f>
         <v>133</v>
       </c>
-      <c r="H29">
+      <c r="H39">
         <f>Sheet3!H24</f>
         <v>126</v>
       </c>
-      <c r="I29">
+      <c r="I39">
         <f>Sheet3!I24</f>
         <v>0.62041999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30">
-        <v>3</v>
-      </c>
-      <c r="B30">
-        <v>2023</v>
-      </c>
-      <c r="C30">
-        <v>5</v>
-      </c>
-      <c r="D30">
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>2023</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
         <v>11</v>
       </c>
-      <c r="E30" t="str">
+      <c r="E40" t="str">
         <f>Sheet3!D25</f>
         <v>Best</v>
       </c>
-      <c r="F30">
+      <c r="F40">
         <f>Sheet3!F25</f>
         <v>33</v>
       </c>
-      <c r="G30">
+      <c r="G40">
         <f>Sheet3!G25</f>
         <v>122</v>
       </c>
-      <c r="H30">
+      <c r="H40">
         <f>Sheet3!H25</f>
         <v>124</v>
       </c>
-      <c r="I30">
+      <c r="I40">
         <f>Sheet3!I25</f>
         <v>0.65258000000000005</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31">
-        <v>3</v>
-      </c>
-      <c r="B31">
-        <v>2023</v>
-      </c>
-      <c r="C31">
-        <v>5</v>
-      </c>
-      <c r="D31">
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>2023</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
         <v>11</v>
       </c>
-      <c r="E31" t="str">
+      <c r="E41" t="str">
         <f>Sheet3!D26</f>
         <v>Midpoint</v>
       </c>
-      <c r="F31">
+      <c r="F41">
         <f>Sheet3!F26</f>
         <v>32.5</v>
       </c>
-      <c r="G31">
+      <c r="G41">
         <f>Sheet3!G26</f>
         <v>124</v>
       </c>
-      <c r="H31">
+      <c r="H41">
         <f>Sheet3!H26</f>
         <v>124</v>
       </c>
-      <c r="I31">
+      <c r="I41">
         <f>Sheet3!I26</f>
         <v>0.64558000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32">
-        <v>3</v>
-      </c>
-      <c r="B32">
-        <v>2023</v>
-      </c>
-      <c r="C32">
-        <v>5</v>
-      </c>
-      <c r="D32">
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>2023</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
         <v>11</v>
       </c>
-      <c r="E32" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32">
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42">
         <f>Sheet3!F27</f>
         <v>33</v>
       </c>
-      <c r="G32">
+      <c r="G42">
         <f>Sheet3!G27</f>
         <v>119</v>
       </c>
-      <c r="H32">
+      <c r="H42">
         <f>Sheet3!H27</f>
         <v>124</v>
       </c>
-      <c r="I32">
+      <c r="I42">
         <f>Sheet3!I27</f>
         <v>0.65858000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33">
-        <v>3</v>
-      </c>
-      <c r="B33">
-        <v>2023</v>
-      </c>
-      <c r="C33">
-        <v>5</v>
-      </c>
-      <c r="D33">
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>2023</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
         <v>11</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E43" t="s">
         <v>6</v>
       </c>
-      <c r="F33">
+      <c r="F43">
         <f>Sheet3!F28</f>
         <v>32</v>
       </c>
-      <c r="G33">
+      <c r="G43">
         <f>Sheet3!G28</f>
         <v>129</v>
       </c>
-      <c r="H33">
+      <c r="H43">
         <f>Sheet3!H28</f>
         <v>124</v>
       </c>
-      <c r="I33">
+      <c r="I43">
         <f>Sheet3!I28</f>
         <v>0.63258000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34">
-        <v>3</v>
-      </c>
-      <c r="B34">
-        <v>2023</v>
-      </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-      <c r="D34">
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>2023</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
         <v>11</v>
       </c>
-      <c r="E34" t="str">
+      <c r="E44" t="str">
         <f>Sheet3!D29</f>
         <v>Best</v>
       </c>
-      <c r="F34">
+      <c r="F44">
         <f>Sheet3!F29</f>
         <v>32</v>
       </c>
-      <c r="G34">
+      <c r="G44">
         <f>Sheet3!G29</f>
         <v>126</v>
       </c>
-      <c r="H34">
+      <c r="H44">
         <f>Sheet3!H29</f>
         <v>107</v>
       </c>
-      <c r="I34">
+      <c r="I44">
         <f>Sheet3!I29</f>
         <v>0.63946999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35">
-        <v>3</v>
-      </c>
-      <c r="B35">
-        <v>2023</v>
-      </c>
-      <c r="C35">
-        <v>5</v>
-      </c>
-      <c r="D35">
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>2023</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
         <v>11</v>
       </c>
-      <c r="E35" t="str">
+      <c r="E45" t="str">
         <f>Sheet3!D30</f>
         <v>Midpoint</v>
       </c>
-      <c r="F35">
+      <c r="F45">
         <f>Sheet3!F30</f>
         <v>32</v>
       </c>
-      <c r="G35">
+      <c r="G45">
         <f>Sheet3!G30</f>
         <v>126</v>
       </c>
-      <c r="H35">
+      <c r="H45">
         <f>Sheet3!H30</f>
         <v>107</v>
       </c>
-      <c r="I35">
+      <c r="I45">
         <f>Sheet3!I30</f>
         <v>0.64046999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36">
-        <v>3</v>
-      </c>
-      <c r="B36">
-        <v>2023</v>
-      </c>
-      <c r="C36">
-        <v>5</v>
-      </c>
-      <c r="D36">
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
         <v>11</v>
       </c>
-      <c r="E36" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36">
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46">
         <f>Sheet3!F31</f>
         <v>33</v>
       </c>
-      <c r="G36">
+      <c r="G46">
         <f>Sheet3!G31</f>
         <v>122</v>
       </c>
-      <c r="H36">
+      <c r="H46">
         <f>Sheet3!H31</f>
         <v>107</v>
       </c>
-      <c r="I36">
+      <c r="I46">
         <f>Sheet3!I31</f>
         <v>0.65246999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37">
-        <v>3</v>
-      </c>
-      <c r="B37">
-        <v>2023</v>
-      </c>
-      <c r="C37">
-        <v>5</v>
-      </c>
-      <c r="D37">
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>2023</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
         <v>11</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E47" t="s">
         <v>6</v>
       </c>
-      <c r="F37">
+      <c r="F47">
         <f>Sheet3!F32</f>
         <v>31</v>
       </c>
-      <c r="G37">
+      <c r="G47">
         <f>Sheet3!G32</f>
         <v>130</v>
       </c>
-      <c r="H37">
+      <c r="H47">
         <f>Sheet3!H32</f>
         <v>107</v>
       </c>
-      <c r="I37">
+      <c r="I47">
         <f>Sheet3!I32</f>
         <v>0.62846999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38">
-        <v>3</v>
-      </c>
-      <c r="B38">
-        <v>2023</v>
-      </c>
-      <c r="C38">
-        <v>5</v>
-      </c>
-      <c r="D38">
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>2023</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
         <v>11</v>
       </c>
-      <c r="E38" t="str">
+      <c r="E48" t="str">
         <f>Sheet3!D33</f>
         <v>Best</v>
       </c>
-      <c r="F38">
+      <c r="F48">
         <f>Sheet3!F33</f>
         <v>31</v>
       </c>
-      <c r="G38">
+      <c r="G48">
         <f>Sheet3!G33</f>
         <v>130</v>
       </c>
-      <c r="H38">
+      <c r="H48">
         <f>Sheet3!H33</f>
         <v>130</v>
       </c>
-      <c r="I38">
+      <c r="I48">
         <f>Sheet3!I33</f>
         <v>0.63</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39">
-        <v>3</v>
-      </c>
-      <c r="B39">
-        <v>2023</v>
-      </c>
-      <c r="C39">
-        <v>5</v>
-      </c>
-      <c r="D39">
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>2023</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
         <v>11</v>
       </c>
-      <c r="E39" t="str">
+      <c r="E49" t="str">
         <f>Sheet3!D34</f>
         <v>Midpoint</v>
       </c>
-      <c r="F39">
+      <c r="F49">
         <f>Sheet3!F34</f>
         <v>31.5</v>
       </c>
-      <c r="G39">
+      <c r="G49">
         <f>Sheet3!G34</f>
         <v>128.5</v>
       </c>
-      <c r="H39">
+      <c r="H49">
         <f>Sheet3!H34</f>
         <v>130</v>
       </c>
-      <c r="I39">
+      <c r="I49">
         <f>Sheet3!I34</f>
         <v>0.63249999999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40">
-        <v>3</v>
-      </c>
-      <c r="B40">
-        <v>2023</v>
-      </c>
-      <c r="C40">
-        <v>5</v>
-      </c>
-      <c r="D40">
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>2023</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
         <v>11</v>
       </c>
-      <c r="E40" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40">
+      <c r="E50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50">
         <f>Sheet3!F35</f>
         <v>32</v>
       </c>
-      <c r="G40">
+      <c r="G50">
         <f>Sheet3!G35</f>
         <v>124</v>
       </c>
-      <c r="H40">
+      <c r="H50">
         <f>Sheet3!H35</f>
         <v>130</v>
       </c>
-      <c r="I40">
+      <c r="I50">
         <f>Sheet3!I35</f>
         <v>0.64500000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41">
-        <v>3</v>
-      </c>
-      <c r="B41">
-        <v>2023</v>
-      </c>
-      <c r="C41">
-        <v>5</v>
-      </c>
-      <c r="D41">
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>2023</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
         <v>11</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E51" t="s">
         <v>6</v>
       </c>
-      <c r="F41">
+      <c r="F51">
         <f>Sheet3!F36</f>
         <v>31</v>
       </c>
-      <c r="G41">
+      <c r="G51">
         <f>Sheet3!G36</f>
         <v>133</v>
       </c>
-      <c r="H41">
+      <c r="H51">
         <f>Sheet3!H36</f>
         <v>130</v>
       </c>
-      <c r="I41">
+      <c r="I51">
         <f>Sheet3!I36</f>
         <v>0.62</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
-      <c r="A42">
-        <v>4</v>
-      </c>
-      <c r="B42">
-        <v>2023</v>
-      </c>
-      <c r="C42">
-        <v>5</v>
-      </c>
-      <c r="D42">
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <v>2023</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
         <v>24</v>
       </c>
-      <c r="E42" t="str">
+      <c r="E52" t="str">
         <f>Sheet3!D37</f>
         <v>Best</v>
       </c>
-      <c r="F42">
+      <c r="F52">
         <f>Sheet3!F37</f>
         <v>33</v>
       </c>
-      <c r="G42">
+      <c r="G52">
         <f>Sheet3!G37</f>
         <v>117</v>
       </c>
-      <c r="H42">
+      <c r="H52">
         <f>Sheet3!H37</f>
         <v>93</v>
       </c>
-      <c r="I42">
+      <c r="I52">
         <f>Sheet3!I37</f>
         <v>0.66476000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43">
-        <v>4</v>
-      </c>
-      <c r="B43">
-        <v>2023</v>
-      </c>
-      <c r="C43">
-        <v>5</v>
-      </c>
-      <c r="D43">
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>2023</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53">
         <v>24</v>
       </c>
-      <c r="E43" t="str">
+      <c r="E53" t="str">
         <f>Sheet3!D38</f>
         <v>Midpoint</v>
       </c>
-      <c r="F43">
+      <c r="F53">
         <f>Sheet3!F38</f>
         <v>32.5</v>
       </c>
-      <c r="G43">
+      <c r="G53">
         <f>Sheet3!G38</f>
         <v>122</v>
       </c>
-      <c r="H43">
+      <c r="H53">
         <f>Sheet3!H38</f>
         <v>93</v>
       </c>
-      <c r="I43">
+      <c r="I53">
         <f>Sheet3!I38</f>
         <v>0.65176000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
-      <c r="A44">
-        <v>4</v>
-      </c>
-      <c r="B44">
-        <v>2023</v>
-      </c>
-      <c r="C44">
-        <v>5</v>
-      </c>
-      <c r="D44">
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>6</v>
+      </c>
+      <c r="B54">
+        <v>2023</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
         <v>24</v>
       </c>
-      <c r="E44" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44">
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54">
         <f>Sheet3!F39</f>
         <v>34</v>
       </c>
-      <c r="G44">
+      <c r="G54">
         <f>Sheet3!G39</f>
         <v>114</v>
       </c>
-      <c r="H44">
+      <c r="H54">
         <f>Sheet3!H39</f>
         <v>93</v>
       </c>
-      <c r="I44">
+      <c r="I54">
         <f>Sheet3!I39</f>
         <v>0.67476000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45">
-        <v>4</v>
-      </c>
-      <c r="B45">
-        <v>2023</v>
-      </c>
-      <c r="C45">
-        <v>5</v>
-      </c>
-      <c r="D45">
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <v>2023</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
         <v>24</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E55" t="s">
         <v>6</v>
       </c>
-      <c r="F45">
+      <c r="F55">
         <f>Sheet3!F40</f>
         <v>31</v>
       </c>
-      <c r="G45">
+      <c r="G55">
         <f>Sheet3!G40</f>
         <v>130</v>
       </c>
-      <c r="H45">
+      <c r="H55">
         <f>Sheet3!H40</f>
         <v>93</v>
       </c>
-      <c r="I45">
+      <c r="I55">
         <f>Sheet3!I40</f>
         <v>0.62875999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46">
-        <v>4</v>
-      </c>
-      <c r="B46">
-        <v>2023</v>
-      </c>
-      <c r="C46">
-        <v>5</v>
-      </c>
-      <c r="D46">
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>6</v>
+      </c>
+      <c r="B56">
+        <v>2023</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
         <v>24</v>
       </c>
-      <c r="E46" t="str">
+      <c r="E56" t="str">
         <f>Sheet3!D41</f>
         <v>Best</v>
       </c>
-      <c r="F46">
+      <c r="F56">
         <f>Sheet3!F41</f>
         <v>33</v>
       </c>
-      <c r="G46">
+      <c r="G56">
         <f>Sheet3!G41</f>
         <v>120</v>
       </c>
-      <c r="H46">
+      <c r="H56">
         <f>Sheet3!H41</f>
         <v>99</v>
       </c>
-      <c r="I46">
+      <c r="I56">
         <f>Sheet3!I41</f>
         <v>0.65690000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
-      <c r="A47">
-        <v>4</v>
-      </c>
-      <c r="B47">
-        <v>2023</v>
-      </c>
-      <c r="C47">
-        <v>5</v>
-      </c>
-      <c r="D47">
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <v>2023</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
         <v>24</v>
       </c>
-      <c r="E47" t="str">
+      <c r="E57" t="str">
         <f>Sheet3!D42</f>
         <v>Midpoint</v>
       </c>
-      <c r="F47">
+      <c r="F57">
         <f>Sheet3!F42</f>
         <v>33</v>
       </c>
-      <c r="G47">
+      <c r="G57">
         <f>Sheet3!G42</f>
         <v>118.5</v>
       </c>
-      <c r="H47">
+      <c r="H57">
         <f>Sheet3!H42</f>
         <v>99</v>
       </c>
-      <c r="I47">
+      <c r="I57">
         <f>Sheet3!I42</f>
         <v>0.66090000000000004</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
-      <c r="A48">
-        <v>4</v>
-      </c>
-      <c r="B48">
-        <v>2023</v>
-      </c>
-      <c r="C48">
-        <v>5</v>
-      </c>
-      <c r="D48">
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <v>2023</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
         <v>24</v>
       </c>
-      <c r="E48" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48">
+      <c r="E58" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58">
         <f>Sheet3!F43</f>
         <v>34</v>
       </c>
-      <c r="G48">
+      <c r="G58">
         <f>Sheet3!G43</f>
         <v>114</v>
       </c>
-      <c r="H48">
+      <c r="H58">
         <f>Sheet3!H43</f>
         <v>99</v>
       </c>
-      <c r="I48">
+      <c r="I58">
         <f>Sheet3!I43</f>
         <v>0.67290000000000005</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
-      <c r="A49">
-        <v>4</v>
-      </c>
-      <c r="B49">
-        <v>2023</v>
-      </c>
-      <c r="C49">
-        <v>5</v>
-      </c>
-      <c r="D49">
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>6</v>
+      </c>
+      <c r="B59">
+        <v>2023</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
         <v>24</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E59" t="s">
         <v>6</v>
       </c>
-      <c r="F49">
+      <c r="F59">
         <f>Sheet3!F44</f>
         <v>32</v>
       </c>
-      <c r="G49">
+      <c r="G59">
         <f>Sheet3!G44</f>
         <v>123</v>
       </c>
-      <c r="H49">
+      <c r="H59">
         <f>Sheet3!H44</f>
         <v>99</v>
       </c>
-      <c r="I49">
+      <c r="I59">
         <f>Sheet3!I44</f>
         <v>0.64890000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
-      <c r="A50">
-        <v>4</v>
-      </c>
-      <c r="B50">
-        <v>2023</v>
-      </c>
-      <c r="C50">
-        <v>5</v>
-      </c>
-      <c r="D50">
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <v>2023</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
         <v>24</v>
       </c>
-      <c r="E50" t="str">
+      <c r="E60" t="str">
         <f>Sheet3!D45</f>
         <v>Best</v>
       </c>
-      <c r="F50">
+      <c r="F60">
         <f>Sheet3!F45</f>
         <v>33</v>
       </c>
-      <c r="G50">
+      <c r="G60">
         <f>Sheet3!G45</f>
         <v>121</v>
       </c>
-      <c r="H50">
+      <c r="H60">
         <f>Sheet3!H45</f>
         <v>104</v>
       </c>
-      <c r="I50">
+      <c r="I60">
         <f>Sheet3!I45</f>
         <v>0.65400000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
-      <c r="A51">
-        <v>4</v>
-      </c>
-      <c r="B51">
-        <v>2023</v>
-      </c>
-      <c r="C51">
-        <v>5</v>
-      </c>
-      <c r="D51">
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>6</v>
+      </c>
+      <c r="B61">
+        <v>2023</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
         <v>24</v>
       </c>
-      <c r="E51" t="str">
+      <c r="E61" t="str">
         <f>Sheet3!D46</f>
         <v>Midpoint</v>
       </c>
-      <c r="F51">
+      <c r="F61">
         <f>Sheet3!F46</f>
         <v>33.5</v>
       </c>
-      <c r="G51">
+      <c r="G61">
         <f>Sheet3!G46</f>
         <v>113.5</v>
       </c>
-      <c r="H51">
+      <c r="H61">
         <f>Sheet3!H46</f>
         <v>104</v>
       </c>
-      <c r="I51">
+      <c r="I61">
         <f>Sheet3!I46</f>
         <v>0.67649999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
-      <c r="A52">
-        <v>4</v>
-      </c>
-      <c r="B52">
-        <v>2023</v>
-      </c>
-      <c r="C52">
-        <v>5</v>
-      </c>
-      <c r="D52">
+    <row r="62" spans="1:9">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="B62">
+        <v>2023</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62">
         <v>24</v>
       </c>
-      <c r="E52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52">
+      <c r="E62" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62">
         <f>Sheet3!F47</f>
         <v>36</v>
       </c>
-      <c r="G52">
+      <c r="G62">
         <f>Sheet3!G47</f>
         <v>97</v>
       </c>
-      <c r="H52">
+      <c r="H62">
         <f>Sheet3!H47</f>
         <v>104</v>
       </c>
-      <c r="I52">
+      <c r="I62">
         <f>Sheet3!I47</f>
         <v>0.72399999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
-      <c r="A53">
-        <v>4</v>
-      </c>
-      <c r="B53">
-        <v>2023</v>
-      </c>
-      <c r="C53">
-        <v>5</v>
-      </c>
-      <c r="D53">
+    <row r="63" spans="1:9">
+      <c r="A63">
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>2023</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
         <v>24</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E63" t="s">
         <v>6</v>
       </c>
-      <c r="F53">
+      <c r="F63">
         <f>Sheet3!F48</f>
         <v>31</v>
       </c>
-      <c r="G53">
+      <c r="G63">
         <f>Sheet3!G48</f>
         <v>130</v>
       </c>
-      <c r="H53">
+      <c r="H63">
         <f>Sheet3!H48</f>
         <v>104</v>
       </c>
-      <c r="I53">
+      <c r="I63">
         <f>Sheet3!I48</f>
         <v>0.629</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
-      <c r="A54">
-        <v>4</v>
-      </c>
-      <c r="B54">
-        <v>2023</v>
-      </c>
-      <c r="C54">
-        <v>5</v>
-      </c>
-      <c r="D54">
+    <row r="64" spans="1:9">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>2023</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
         <v>24</v>
       </c>
-      <c r="E54" t="str">
+      <c r="E64" t="str">
         <f>Sheet3!D49</f>
         <v>Best</v>
       </c>
-      <c r="F54">
+      <c r="F64">
         <f>Sheet3!F49</f>
         <v>32</v>
       </c>
-      <c r="G54">
+      <c r="G64">
         <f>Sheet3!G49</f>
         <v>123</v>
       </c>
-      <c r="H54">
+      <c r="H64">
         <f>Sheet3!H49</f>
         <v>121</v>
       </c>
-      <c r="I54">
+      <c r="I64">
         <f>Sheet3!I49</f>
         <v>0.64897000000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
-      <c r="A55">
-        <v>4</v>
-      </c>
-      <c r="B55">
-        <v>2023</v>
-      </c>
-      <c r="C55">
-        <v>5</v>
-      </c>
-      <c r="D55">
+    <row r="65" spans="1:9">
+      <c r="A65">
+        <v>6</v>
+      </c>
+      <c r="B65">
+        <v>2023</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65">
         <v>24</v>
       </c>
-      <c r="E55" t="str">
+      <c r="E65" t="str">
         <f>Sheet3!D50</f>
         <v>Midpoint</v>
       </c>
-      <c r="F55">
+      <c r="F65">
         <f>Sheet3!F50</f>
         <v>32.5</v>
       </c>
-      <c r="G55">
+      <c r="G65">
         <f>Sheet3!G50</f>
         <v>121</v>
       </c>
-      <c r="H55">
+      <c r="H65">
         <f>Sheet3!H50</f>
         <v>121</v>
       </c>
-      <c r="I55">
+      <c r="I65">
         <f>Sheet3!I50</f>
         <v>0.65547</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
-      <c r="A56">
-        <v>4</v>
-      </c>
-      <c r="B56">
-        <v>2023</v>
-      </c>
-      <c r="C56">
-        <v>5</v>
-      </c>
-      <c r="D56">
+    <row r="66" spans="1:9">
+      <c r="A66">
+        <v>6</v>
+      </c>
+      <c r="B66">
+        <v>2023</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66">
         <v>24</v>
       </c>
-      <c r="E56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56">
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66">
         <f>Sheet3!F51</f>
         <v>33</v>
       </c>
-      <c r="G56">
+      <c r="G66">
         <f>Sheet3!G51</f>
         <v>116</v>
       </c>
-      <c r="H56">
+      <c r="H66">
         <f>Sheet3!H51</f>
         <v>121</v>
       </c>
-      <c r="I56">
+      <c r="I66">
         <f>Sheet3!I51</f>
         <v>0.66996999999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
-      <c r="A57">
-        <v>4</v>
-      </c>
-      <c r="B57">
-        <v>2023</v>
-      </c>
-      <c r="C57">
-        <v>5</v>
-      </c>
-      <c r="D57">
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>6</v>
+      </c>
+      <c r="B67">
+        <v>2023</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67">
         <v>24</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E67" t="s">
         <v>6</v>
       </c>
-      <c r="F57">
+      <c r="F67">
         <f>Sheet3!F52</f>
         <v>32</v>
       </c>
-      <c r="G57">
+      <c r="G67">
         <f>Sheet3!G52</f>
         <v>126</v>
       </c>
-      <c r="H57">
+      <c r="H67">
         <f>Sheet3!H52</f>
         <v>121</v>
       </c>
-      <c r="I57">
+      <c r="I67">
         <f>Sheet3!I52</f>
         <v>0.64097000000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
-      <c r="A58">
-        <v>4</v>
-      </c>
-      <c r="B58">
-        <v>2023</v>
-      </c>
-      <c r="C58">
-        <v>5</v>
-      </c>
-      <c r="D58">
+    <row r="68" spans="1:9">
+      <c r="A68">
+        <v>6</v>
+      </c>
+      <c r="B68">
+        <v>2023</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+      <c r="D68">
         <v>24</v>
       </c>
-      <c r="E58" t="str">
+      <c r="E68" t="str">
         <f>Sheet3!D53</f>
         <v>Best</v>
       </c>
-      <c r="F58">
+      <c r="F68">
         <f>Sheet3!F53</f>
         <v>33</v>
       </c>
-      <c r="G58">
+      <c r="G68">
         <f>Sheet3!G53</f>
         <v>121</v>
       </c>
-      <c r="H58">
+      <c r="H68">
         <f>Sheet3!H53</f>
         <v>127</v>
       </c>
-      <c r="I58">
+      <c r="I68">
         <f>Sheet3!I53</f>
         <v>0.65459999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
-      <c r="A59">
-        <v>4</v>
-      </c>
-      <c r="B59">
-        <v>2023</v>
-      </c>
-      <c r="C59">
-        <v>5</v>
-      </c>
-      <c r="D59">
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>6</v>
+      </c>
+      <c r="B69">
+        <v>2023</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69">
         <v>24</v>
       </c>
-      <c r="E59" t="str">
+      <c r="E69" t="str">
         <f>Sheet3!D54</f>
         <v>Midpoint</v>
       </c>
-      <c r="F59">
+      <c r="F69">
         <f>Sheet3!F54</f>
         <v>33</v>
       </c>
-      <c r="G59">
+      <c r="G69">
         <f>Sheet3!G54</f>
         <v>117</v>
       </c>
-      <c r="H59">
+      <c r="H69">
         <f>Sheet3!H54</f>
         <v>127</v>
       </c>
-      <c r="I59">
+      <c r="I69">
         <f>Sheet3!I54</f>
         <v>0.66459999999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
-      <c r="A60">
-        <v>4</v>
-      </c>
-      <c r="B60">
-        <v>2023</v>
-      </c>
-      <c r="C60">
-        <v>5</v>
-      </c>
-      <c r="D60">
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <v>6</v>
+      </c>
+      <c r="B70">
+        <v>2023</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70">
         <v>24</v>
       </c>
-      <c r="E60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60">
+      <c r="E70" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70">
         <f>Sheet3!F55</f>
         <v>35</v>
       </c>
-      <c r="G60">
+      <c r="G70">
         <f>Sheet3!G55</f>
         <v>103</v>
       </c>
-      <c r="H60">
+      <c r="H70">
         <f>Sheet3!H55</f>
         <v>127</v>
       </c>
-      <c r="I60">
+      <c r="I70">
         <f>Sheet3!I55</f>
         <v>0.7046</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
-      <c r="A61">
-        <v>4</v>
-      </c>
-      <c r="B61">
-        <v>2023</v>
-      </c>
-      <c r="C61">
-        <v>5</v>
-      </c>
-      <c r="D61">
+    <row r="71" spans="1:9">
+      <c r="A71">
+        <v>6</v>
+      </c>
+      <c r="B71">
+        <v>2023</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="D71">
         <v>24</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E71" t="s">
         <v>6</v>
       </c>
-      <c r="F61">
+      <c r="F71">
         <f>Sheet3!F56</f>
         <v>31</v>
       </c>
-      <c r="G61">
+      <c r="G71">
         <f>Sheet3!G56</f>
         <v>131</v>
       </c>
-      <c r="H61">
+      <c r="H71">
         <f>Sheet3!H56</f>
         <v>127</v>
       </c>
-      <c r="I61">
+      <c r="I71">
         <f>Sheet3!I56</f>
         <v>0.62460000000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
-      <c r="A62">
-        <v>5</v>
-      </c>
-      <c r="B62">
-        <v>2023</v>
-      </c>
-      <c r="C62">
-        <v>5</v>
-      </c>
-      <c r="D62">
+    <row r="72" spans="1:9">
+      <c r="A72">
+        <v>7</v>
+      </c>
+      <c r="B72">
+        <v>2023</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72">
         <v>24</v>
       </c>
-      <c r="E62" t="str">
+      <c r="E72" t="str">
         <f>Sheet3!D57</f>
         <v>Best</v>
       </c>
-      <c r="F62">
+      <c r="F72">
         <f>Sheet3!F57</f>
         <v>34</v>
       </c>
-      <c r="G62">
+      <c r="G72">
         <f>Sheet3!G57</f>
         <v>115</v>
       </c>
-      <c r="H62">
+      <c r="H72">
         <f>Sheet3!H57</f>
         <v>112</v>
       </c>
-      <c r="I62">
+      <c r="I72">
         <f>Sheet3!I57</f>
         <v>0.67201</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
-      <c r="A63">
-        <v>5</v>
-      </c>
-      <c r="B63">
-        <v>2023</v>
-      </c>
-      <c r="C63">
-        <v>5</v>
-      </c>
-      <c r="D63">
+    <row r="73" spans="1:9">
+      <c r="A73">
+        <v>7</v>
+      </c>
+      <c r="B73">
+        <v>2023</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73">
         <v>24</v>
       </c>
-      <c r="E63" t="str">
+      <c r="E73" t="str">
         <f>Sheet3!D58</f>
         <v>Midpoint</v>
       </c>
-      <c r="F63">
+      <c r="F73">
         <f>Sheet3!F58</f>
         <v>33</v>
       </c>
-      <c r="G63">
+      <c r="G73">
         <f>Sheet3!G58</f>
         <v>118</v>
       </c>
-      <c r="H63">
+      <c r="H73">
         <f>Sheet3!H58</f>
         <v>112</v>
       </c>
-      <c r="I63">
+      <c r="I73">
         <f>Sheet3!I58</f>
         <v>0.66200999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
-      <c r="A64">
-        <v>5</v>
-      </c>
-      <c r="B64">
-        <v>2023</v>
-      </c>
-      <c r="C64">
-        <v>5</v>
-      </c>
-      <c r="D64">
+    <row r="74" spans="1:9">
+      <c r="A74">
+        <v>7</v>
+      </c>
+      <c r="B74">
+        <v>2023</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="D74">
         <v>24</v>
       </c>
-      <c r="E64" t="s">
-        <v>5</v>
-      </c>
-      <c r="F64">
+      <c r="E74" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74">
         <f>Sheet3!F59</f>
         <v>34</v>
       </c>
-      <c r="G64">
+      <c r="G74">
         <f>Sheet3!G59</f>
         <v>112</v>
       </c>
-      <c r="H64">
+      <c r="H74">
         <f>Sheet3!H59</f>
         <v>112</v>
       </c>
-      <c r="I64">
+      <c r="I74">
         <f>Sheet3!I59</f>
         <v>0.67901</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
-      <c r="A65">
-        <v>5</v>
-      </c>
-      <c r="B65">
-        <v>2023</v>
-      </c>
-      <c r="C65">
-        <v>5</v>
-      </c>
-      <c r="D65">
+    <row r="75" spans="1:9">
+      <c r="A75">
+        <v>7</v>
+      </c>
+      <c r="B75">
+        <v>2023</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="D75">
         <v>24</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E75" t="s">
         <v>6</v>
       </c>
-      <c r="F65">
+      <c r="F75">
         <f>Sheet3!F60</f>
         <v>32</v>
       </c>
-      <c r="G65">
+      <c r="G75">
         <f>Sheet3!G60</f>
         <v>124</v>
       </c>
-      <c r="H65">
+      <c r="H75">
         <f>Sheet3!H60</f>
         <v>112</v>
       </c>
-      <c r="I65">
+      <c r="I75">
         <f>Sheet3!I60</f>
         <v>0.64500999999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
-      <c r="A66">
-        <v>5</v>
-      </c>
-      <c r="B66">
-        <v>2023</v>
-      </c>
-      <c r="C66">
-        <v>5</v>
-      </c>
-      <c r="D66">
+    <row r="76" spans="1:9">
+      <c r="A76">
+        <v>7</v>
+      </c>
+      <c r="B76">
+        <v>2023</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+      <c r="D76">
         <v>24</v>
       </c>
-      <c r="E66" t="str">
+      <c r="E76" t="str">
         <f>Sheet3!D61</f>
         <v>Best</v>
       </c>
-      <c r="F66">
+      <c r="F76">
         <f>Sheet3!F61</f>
         <v>33</v>
       </c>
-      <c r="G66">
+      <c r="G76">
         <f>Sheet3!G61</f>
         <v>119</v>
       </c>
-      <c r="H66">
+      <c r="H76">
         <f>Sheet3!H61</f>
         <v>126</v>
       </c>
-      <c r="I66">
+      <c r="I76">
         <f>Sheet3!I61</f>
         <v>0.65869</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
-      <c r="A67">
-        <v>5</v>
-      </c>
-      <c r="B67">
-        <v>2023</v>
-      </c>
-      <c r="C67">
-        <v>5</v>
-      </c>
-      <c r="D67">
+    <row r="77" spans="1:9">
+      <c r="A77">
+        <v>7</v>
+      </c>
+      <c r="B77">
+        <v>2023</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+      <c r="D77">
         <v>24</v>
       </c>
-      <c r="E67" t="str">
+      <c r="E77" t="str">
         <f>Sheet3!D62</f>
         <v>Midpoint</v>
       </c>
-      <c r="F67">
+      <c r="F77">
         <f>Sheet3!F62</f>
         <v>33</v>
       </c>
-      <c r="G67">
+      <c r="G77">
         <f>Sheet3!G62</f>
         <v>117.5</v>
       </c>
-      <c r="H67">
+      <c r="H77">
         <f>Sheet3!H62</f>
         <v>126</v>
       </c>
-      <c r="I67">
+      <c r="I77">
         <f>Sheet3!I62</f>
         <v>0.66418999999999995</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
-      <c r="A68">
-        <v>5</v>
-      </c>
-      <c r="B68">
-        <v>2023</v>
-      </c>
-      <c r="C68">
-        <v>5</v>
-      </c>
-      <c r="D68">
+    <row r="78" spans="1:9">
+      <c r="A78">
+        <v>7</v>
+      </c>
+      <c r="B78">
+        <v>2023</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78">
         <v>24</v>
       </c>
-      <c r="E68" t="s">
-        <v>5</v>
-      </c>
-      <c r="F68">
+      <c r="E78" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78">
         <f>Sheet3!F63</f>
         <v>34</v>
       </c>
-      <c r="G68">
+      <c r="G78">
         <f>Sheet3!G63</f>
         <v>111</v>
       </c>
-      <c r="H68">
+      <c r="H78">
         <f>Sheet3!H63</f>
         <v>126</v>
       </c>
-      <c r="I68">
+      <c r="I78">
         <f>Sheet3!I63</f>
         <v>0.68369000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
-      <c r="A69">
-        <v>5</v>
-      </c>
-      <c r="B69">
-        <v>2023</v>
-      </c>
-      <c r="C69">
-        <v>5</v>
-      </c>
-      <c r="D69">
+    <row r="79" spans="1:9">
+      <c r="A79">
+        <v>7</v>
+      </c>
+      <c r="B79">
+        <v>2023</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79">
         <v>24</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E79" t="s">
         <v>6</v>
       </c>
-      <c r="F69">
+      <c r="F79">
         <f>Sheet3!F64</f>
         <v>32</v>
       </c>
-      <c r="G69">
+      <c r="G79">
         <f>Sheet3!G64</f>
         <v>124</v>
       </c>
-      <c r="H69">
+      <c r="H79">
         <f>Sheet3!H64</f>
         <v>126</v>
       </c>
-      <c r="I69">
+      <c r="I79">
         <f>Sheet3!I64</f>
         <v>0.64468999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
-      <c r="A70">
-        <v>5</v>
-      </c>
-      <c r="B70">
-        <v>2023</v>
-      </c>
-      <c r="C70">
-        <v>5</v>
-      </c>
-      <c r="D70">
+    <row r="80" spans="1:9">
+      <c r="A80">
+        <v>7</v>
+      </c>
+      <c r="B80">
+        <v>2023</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="D80">
         <v>24</v>
       </c>
-      <c r="E70" t="str">
+      <c r="E80" t="str">
         <f>Sheet3!D65</f>
         <v>Best</v>
       </c>
-      <c r="F70">
+      <c r="F80">
         <f>Sheet3!F65</f>
         <v>33</v>
       </c>
-      <c r="G70">
+      <c r="G80">
         <f>Sheet3!G65</f>
         <v>118</v>
       </c>
-      <c r="H70">
+      <c r="H80">
         <f>Sheet3!H65</f>
         <v>126</v>
       </c>
-      <c r="I70">
+      <c r="I80">
         <f>Sheet3!I65</f>
         <v>0.66191</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
-      <c r="A71">
-        <v>5</v>
-      </c>
-      <c r="B71">
-        <v>2023</v>
-      </c>
-      <c r="C71">
-        <v>5</v>
-      </c>
-      <c r="D71">
+    <row r="81" spans="1:9">
+      <c r="A81">
+        <v>7</v>
+      </c>
+      <c r="B81">
+        <v>2023</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="D81">
         <v>24</v>
       </c>
-      <c r="E71" t="str">
+      <c r="E81" t="str">
         <f>Sheet3!D66</f>
         <v>Midpoint</v>
       </c>
-      <c r="F71">
+      <c r="F81">
         <f>Sheet3!F66</f>
         <v>33</v>
       </c>
-      <c r="G71">
+      <c r="G81">
         <f>Sheet3!G66</f>
         <v>118</v>
       </c>
-      <c r="H71">
+      <c r="H81">
         <f>Sheet3!H66</f>
         <v>126</v>
       </c>
-      <c r="I71">
+      <c r="I81">
         <f>Sheet3!I66</f>
         <v>0.66391</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
-      <c r="A72">
-        <v>5</v>
-      </c>
-      <c r="B72">
-        <v>2023</v>
-      </c>
-      <c r="C72">
-        <v>5</v>
-      </c>
-      <c r="D72">
+    <row r="82" spans="1:9">
+      <c r="A82">
+        <v>7</v>
+      </c>
+      <c r="B82">
+        <v>2023</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+      <c r="D82">
         <v>24</v>
       </c>
-      <c r="E72" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72">
+      <c r="E82" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82">
         <f>Sheet3!F67</f>
         <v>34</v>
       </c>
-      <c r="G72">
+      <c r="G82">
         <f>Sheet3!G67</f>
         <v>111</v>
       </c>
-      <c r="H72">
+      <c r="H82">
         <f>Sheet3!H67</f>
         <v>126</v>
       </c>
-      <c r="I72">
+      <c r="I82">
         <f>Sheet3!I67</f>
         <v>0.68391000000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
-      <c r="A73">
-        <v>5</v>
-      </c>
-      <c r="B73">
-        <v>2023</v>
-      </c>
-      <c r="C73">
-        <v>5</v>
-      </c>
-      <c r="D73">
+    <row r="83" spans="1:9">
+      <c r="A83">
+        <v>7</v>
+      </c>
+      <c r="B83">
+        <v>2023</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+      <c r="D83">
         <v>24</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E83" t="s">
         <v>6</v>
       </c>
-      <c r="F73">
+      <c r="F83">
         <f>Sheet3!F68</f>
         <v>32</v>
       </c>
-      <c r="G73">
+      <c r="G83">
         <f>Sheet3!G68</f>
         <v>125</v>
       </c>
-      <c r="H73">
+      <c r="H83">
         <f>Sheet3!H68</f>
         <v>126</v>
       </c>
-      <c r="I73">
+      <c r="I83">
         <f>Sheet3!I68</f>
         <v>0.64390999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
-      <c r="A74">
-        <v>5</v>
-      </c>
-      <c r="B74">
-        <v>2023</v>
-      </c>
-      <c r="C74">
-        <v>5</v>
-      </c>
-      <c r="D74">
+    <row r="84" spans="1:9">
+      <c r="A84">
+        <v>7</v>
+      </c>
+      <c r="B84">
+        <v>2023</v>
+      </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
+      <c r="D84">
         <v>24</v>
       </c>
-      <c r="E74" t="str">
+      <c r="E84" t="str">
         <f>Sheet3!D69</f>
         <v>Best</v>
       </c>
-      <c r="F74">
+      <c r="F84">
         <f>Sheet3!F69</f>
         <v>33</v>
       </c>
-      <c r="G74">
+      <c r="G84">
         <f>Sheet3!G69</f>
         <v>117</v>
       </c>
-      <c r="H74">
+      <c r="H84">
         <f>Sheet3!H69</f>
         <v>136</v>
       </c>
-      <c r="I74">
+      <c r="I84">
         <f>Sheet3!I69</f>
         <v>0.66579999999999995</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
-      <c r="A75">
-        <v>5</v>
-      </c>
-      <c r="B75">
-        <v>2023</v>
-      </c>
-      <c r="C75">
-        <v>5</v>
-      </c>
-      <c r="D75">
+    <row r="85" spans="1:9">
+      <c r="A85">
+        <v>7</v>
+      </c>
+      <c r="B85">
+        <v>2023</v>
+      </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
+      <c r="D85">
         <v>24</v>
       </c>
-      <c r="E75" t="str">
+      <c r="E85" t="str">
         <f>Sheet3!D70</f>
         <v>Midpoint</v>
       </c>
-      <c r="F75">
+      <c r="F85">
         <f>Sheet3!F70</f>
         <v>33</v>
       </c>
-      <c r="G75">
+      <c r="G85">
         <f>Sheet3!G70</f>
         <v>117</v>
       </c>
-      <c r="H75">
+      <c r="H85">
         <f>Sheet3!H70</f>
         <v>136</v>
       </c>
-      <c r="I75">
+      <c r="I85">
         <f>Sheet3!I70</f>
         <v>0.6653</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
-      <c r="A76">
-        <v>5</v>
-      </c>
-      <c r="B76">
-        <v>2023</v>
-      </c>
-      <c r="C76">
-        <v>5</v>
-      </c>
-      <c r="D76">
+    <row r="86" spans="1:9">
+      <c r="A86">
+        <v>7</v>
+      </c>
+      <c r="B86">
+        <v>2023</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86">
         <v>24</v>
       </c>
-      <c r="E76" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76">
+      <c r="E86" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86">
         <f>Sheet3!F71</f>
         <v>34</v>
       </c>
-      <c r="G76">
+      <c r="G86">
         <f>Sheet3!G71</f>
         <v>111</v>
       </c>
-      <c r="H76">
+      <c r="H86">
         <f>Sheet3!H71</f>
         <v>136</v>
       </c>
-      <c r="I76">
+      <c r="I86">
         <f>Sheet3!I71</f>
         <v>0.68279999999999996</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
-      <c r="A77">
-        <v>5</v>
-      </c>
-      <c r="B77">
-        <v>2023</v>
-      </c>
-      <c r="C77">
-        <v>5</v>
-      </c>
-      <c r="D77">
+    <row r="87" spans="1:9">
+      <c r="A87">
+        <v>7</v>
+      </c>
+      <c r="B87">
+        <v>2023</v>
+      </c>
+      <c r="C87">
+        <v>5</v>
+      </c>
+      <c r="D87">
         <v>24</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E87" t="s">
         <v>6</v>
       </c>
-      <c r="F77">
+      <c r="F87">
         <f>Sheet3!F72</f>
         <v>32</v>
       </c>
-      <c r="G77">
+      <c r="G87">
         <f>Sheet3!G72</f>
         <v>123</v>
       </c>
-      <c r="H77">
+      <c r="H87">
         <f>Sheet3!H72</f>
         <v>136</v>
       </c>
-      <c r="I77">
+      <c r="I87">
         <f>Sheet3!I72</f>
         <v>0.64780000000000004</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
-      <c r="A78">
-        <v>5</v>
-      </c>
-      <c r="B78">
-        <v>2023</v>
-      </c>
-      <c r="C78">
-        <v>5</v>
-      </c>
-      <c r="D78">
+    <row r="88" spans="1:9">
+      <c r="A88">
+        <v>7</v>
+      </c>
+      <c r="B88">
+        <v>2023</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="D88">
         <v>24</v>
       </c>
-      <c r="E78" t="str">
+      <c r="E88" t="str">
         <f>Sheet3!D73</f>
         <v>Best</v>
       </c>
-      <c r="F78">
+      <c r="F88">
         <f>Sheet3!F73</f>
         <v>33</v>
       </c>
-      <c r="G78">
+      <c r="G88">
         <f>Sheet3!G73</f>
         <v>116</v>
       </c>
-      <c r="H78">
+      <c r="H88">
         <f>Sheet3!H73</f>
         <v>138</v>
       </c>
-      <c r="I78">
+      <c r="I88">
         <f>Sheet3!I73</f>
         <v>0.66930000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
-      <c r="A79">
-        <v>5</v>
-      </c>
-      <c r="B79">
-        <v>2023</v>
-      </c>
-      <c r="C79">
-        <v>5</v>
-      </c>
-      <c r="D79">
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>7</v>
+      </c>
+      <c r="B89">
+        <v>2023</v>
+      </c>
+      <c r="C89">
+        <v>5</v>
+      </c>
+      <c r="D89">
         <v>24</v>
       </c>
-      <c r="E79" t="str">
+      <c r="E89" t="str">
         <f>Sheet3!D74</f>
         <v>Midpoint</v>
       </c>
-      <c r="F79">
+      <c r="F89">
         <f>Sheet3!F74</f>
         <v>33</v>
       </c>
-      <c r="G79">
+      <c r="G89">
         <f>Sheet3!G74</f>
         <v>120</v>
       </c>
-      <c r="H79">
+      <c r="H89">
         <f>Sheet3!H74</f>
         <v>138</v>
       </c>
-      <c r="I79">
+      <c r="I89">
         <f>Sheet3!I74</f>
         <v>0.6573</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
-      <c r="A80">
-        <v>5</v>
-      </c>
-      <c r="B80">
-        <v>2023</v>
-      </c>
-      <c r="C80">
-        <v>5</v>
-      </c>
-      <c r="D80">
+    <row r="90" spans="1:9">
+      <c r="A90">
+        <v>7</v>
+      </c>
+      <c r="B90">
+        <v>2023</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+      <c r="D90">
         <v>24</v>
       </c>
-      <c r="E80" t="s">
-        <v>5</v>
-      </c>
-      <c r="F80">
+      <c r="E90" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90">
         <f>Sheet3!F75</f>
         <v>34</v>
       </c>
-      <c r="G80">
+      <c r="G90">
         <f>Sheet3!G75</f>
         <v>113</v>
       </c>
-      <c r="H80">
+      <c r="H90">
         <f>Sheet3!H75</f>
         <v>138</v>
       </c>
-      <c r="I80">
+      <c r="I90">
         <f>Sheet3!I75</f>
         <v>0.67730000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
-      <c r="A81">
-        <v>5</v>
-      </c>
-      <c r="B81">
-        <v>2023</v>
-      </c>
-      <c r="C81">
-        <v>5</v>
-      </c>
-      <c r="D81">
+    <row r="91" spans="1:9">
+      <c r="A91">
+        <v>7</v>
+      </c>
+      <c r="B91">
+        <v>2023</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+      <c r="D91">
         <v>24</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E91" t="s">
         <v>6</v>
       </c>
-      <c r="F81">
+      <c r="F91">
         <f>Sheet3!F76</f>
         <v>32</v>
       </c>
-      <c r="G81">
+      <c r="G91">
         <f>Sheet3!G76</f>
         <v>127</v>
       </c>
-      <c r="H81">
+      <c r="H91">
         <f>Sheet3!H76</f>
         <v>138</v>
       </c>
-      <c r="I81">
+      <c r="I91">
         <f>Sheet3!I76</f>
         <v>0.63729999999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
-      <c r="A82">
+    <row r="92" spans="1:9">
+      <c r="A92">
+        <v>8</v>
+      </c>
+      <c r="B92">
+        <v>2023</v>
+      </c>
+      <c r="C92">
         <v>6</v>
       </c>
-      <c r="B82">
-        <v>2023</v>
-      </c>
-      <c r="C82">
-        <v>6</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82" t="str">
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="str">
         <f>Sheet3!D77</f>
         <v>Best</v>
       </c>
-      <c r="F82">
+      <c r="F92">
         <f>Sheet3!F77</f>
         <v>32</v>
       </c>
-      <c r="G82">
+      <c r="G92">
         <f>Sheet3!G77</f>
         <v>126</v>
       </c>
-      <c r="H82">
+      <c r="H92">
         <f>Sheet3!H77</f>
         <v>120</v>
       </c>
-      <c r="I82">
+      <c r="I92">
         <f>Sheet3!I77</f>
         <v>0.64078000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
-      <c r="A83">
+    <row r="93" spans="1:9">
+      <c r="A93">
+        <v>8</v>
+      </c>
+      <c r="B93">
+        <v>2023</v>
+      </c>
+      <c r="C93">
         <v>6</v>
       </c>
-      <c r="B83">
-        <v>2023</v>
-      </c>
-      <c r="C83">
-        <v>6</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83" t="str">
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" t="str">
         <f>Sheet3!D78</f>
         <v>Midpoint</v>
       </c>
-      <c r="F83">
+      <c r="F93">
         <f>Sheet3!F78</f>
         <v>32</v>
       </c>
-      <c r="G83">
+      <c r="G93">
         <f>Sheet3!G78</f>
         <v>126</v>
       </c>
-      <c r="H83">
+      <c r="H93">
         <f>Sheet3!H78</f>
         <v>120</v>
       </c>
-      <c r="I83">
+      <c r="I93">
         <f>Sheet3!I78</f>
         <v>0.63978000000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
-      <c r="A84">
+    <row r="94" spans="1:9">
+      <c r="A94">
+        <v>8</v>
+      </c>
+      <c r="B94">
+        <v>2023</v>
+      </c>
+      <c r="C94">
         <v>6</v>
       </c>
-      <c r="B84">
-        <v>2023</v>
-      </c>
-      <c r="C84">
-        <v>6</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84" t="s">
-        <v>5</v>
-      </c>
-      <c r="F84">
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94">
         <f>Sheet3!F79</f>
         <v>33</v>
       </c>
-      <c r="G84">
+      <c r="G94">
         <f>Sheet3!G79</f>
         <v>122</v>
       </c>
-      <c r="H84">
+      <c r="H94">
         <f>Sheet3!H79</f>
         <v>120</v>
       </c>
-      <c r="I84">
+      <c r="I94">
         <f>Sheet3!I79</f>
         <v>0.65178000000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
-      <c r="A85">
+    <row r="95" spans="1:9">
+      <c r="A95">
+        <v>8</v>
+      </c>
+      <c r="B95">
+        <v>2023</v>
+      </c>
+      <c r="C95">
         <v>6</v>
       </c>
-      <c r="B85">
-        <v>2023</v>
-      </c>
-      <c r="C85">
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
         <v>6</v>
       </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85" t="s">
-        <v>6</v>
-      </c>
-      <c r="F85">
+      <c r="F95">
         <f>Sheet3!F80</f>
         <v>31</v>
       </c>
-      <c r="G85">
+      <c r="G95">
         <f>Sheet3!G80</f>
         <v>130</v>
       </c>
-      <c r="H85">
+      <c r="H95">
         <f>Sheet3!H80</f>
         <v>120</v>
       </c>
-      <c r="I85">
+      <c r="I95">
         <f>Sheet3!I80</f>
         <v>0.62778</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
-      <c r="A86">
+    <row r="96" spans="1:9">
+      <c r="A96">
+        <v>8</v>
+      </c>
+      <c r="B96">
+        <v>2023</v>
+      </c>
+      <c r="C96">
         <v>6</v>
       </c>
-      <c r="B86">
-        <v>2023</v>
-      </c>
-      <c r="C86">
-        <v>6</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86" t="str">
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" t="str">
         <f>Sheet3!D81</f>
         <v>Best</v>
       </c>
-      <c r="F86">
+      <c r="F96">
         <f>Sheet3!F81</f>
         <v>32</v>
       </c>
-      <c r="G86">
+      <c r="G96">
         <f>Sheet3!G81</f>
         <v>128</v>
       </c>
-      <c r="H86">
+      <c r="H96">
         <f>Sheet3!H81</f>
         <v>126</v>
       </c>
-      <c r="I86">
+      <c r="I96">
         <f>Sheet3!I81</f>
         <v>0.63341999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
-      <c r="A87">
+    <row r="97" spans="1:9">
+      <c r="A97">
+        <v>8</v>
+      </c>
+      <c r="B97">
+        <v>2023</v>
+      </c>
+      <c r="C97">
         <v>6</v>
       </c>
-      <c r="B87">
-        <v>2023</v>
-      </c>
-      <c r="C87">
-        <v>6</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87" t="str">
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" t="str">
         <f>Sheet3!D82</f>
         <v>Midpoint</v>
       </c>
-      <c r="F87">
+      <c r="F97">
         <f>Sheet3!F82</f>
         <v>32</v>
       </c>
-      <c r="G87">
+      <c r="G97">
         <f>Sheet3!G82</f>
         <v>127.5</v>
       </c>
-      <c r="H87">
+      <c r="H97">
         <f>Sheet3!H82</f>
         <v>126</v>
       </c>
-      <c r="I87">
+      <c r="I97">
         <f>Sheet3!I82</f>
         <v>0.63641999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
-      <c r="A88">
+    <row r="98" spans="1:9">
+      <c r="A98">
+        <v>8</v>
+      </c>
+      <c r="B98">
+        <v>2023</v>
+      </c>
+      <c r="C98">
         <v>6</v>
       </c>
-      <c r="B88">
-        <v>2023</v>
-      </c>
-      <c r="C88">
-        <v>6</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88" t="s">
-        <v>5</v>
-      </c>
-      <c r="F88">
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98">
         <f>Sheet3!F83</f>
         <v>33</v>
       </c>
-      <c r="G88">
+      <c r="G98">
         <f>Sheet3!G83</f>
         <v>122</v>
       </c>
-      <c r="H88">
+      <c r="H98">
         <f>Sheet3!H83</f>
         <v>126</v>
       </c>
-      <c r="I88">
+      <c r="I98">
         <f>Sheet3!I83</f>
         <v>0.65242</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
-      <c r="A89">
+    <row r="99" spans="1:9">
+      <c r="A99">
+        <v>8</v>
+      </c>
+      <c r="B99">
+        <v>2023</v>
+      </c>
+      <c r="C99">
         <v>6</v>
       </c>
-      <c r="B89">
-        <v>2023</v>
-      </c>
-      <c r="C89">
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
         <v>6</v>
       </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89" t="s">
-        <v>6</v>
-      </c>
-      <c r="F89">
+      <c r="F99">
         <f>Sheet3!F84</f>
         <v>31</v>
       </c>
-      <c r="G89">
+      <c r="G99">
         <f>Sheet3!G84</f>
         <v>133</v>
       </c>
-      <c r="H89">
+      <c r="H99">
         <f>Sheet3!H84</f>
         <v>126</v>
       </c>
-      <c r="I89">
+      <c r="I99">
         <f>Sheet3!I84</f>
         <v>0.62041999999999997</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
-      <c r="A90">
+    <row r="100" spans="1:9">
+      <c r="A100">
+        <v>8</v>
+      </c>
+      <c r="B100">
+        <v>2023</v>
+      </c>
+      <c r="C100">
         <v>6</v>
       </c>
-      <c r="B90">
-        <v>2023</v>
-      </c>
-      <c r="C90">
-        <v>6</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90" t="str">
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100" t="str">
         <f>Sheet3!D85</f>
         <v>Best</v>
       </c>
-      <c r="F90">
+      <c r="F100">
         <f>Sheet3!F85</f>
         <v>33</v>
       </c>
-      <c r="G90">
+      <c r="G100">
         <f>Sheet3!G85</f>
         <v>122</v>
       </c>
-      <c r="H90">
+      <c r="H100">
         <f>Sheet3!H85</f>
         <v>124</v>
       </c>
-      <c r="I90">
+      <c r="I100">
         <f>Sheet3!I85</f>
         <v>0.65258000000000005</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
-      <c r="A91">
+    <row r="101" spans="1:9">
+      <c r="A101">
+        <v>8</v>
+      </c>
+      <c r="B101">
+        <v>2023</v>
+      </c>
+      <c r="C101">
         <v>6</v>
       </c>
-      <c r="B91">
-        <v>2023</v>
-      </c>
-      <c r="C91">
-        <v>6</v>
-      </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91" t="str">
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" t="str">
         <f>Sheet3!D86</f>
         <v>Midpoint</v>
       </c>
-      <c r="F91">
+      <c r="F101">
         <f>Sheet3!F86</f>
         <v>32.5</v>
       </c>
-      <c r="G91">
+      <c r="G101">
         <f>Sheet3!G86</f>
         <v>124</v>
       </c>
-      <c r="H91">
+      <c r="H101">
         <f>Sheet3!H86</f>
         <v>124</v>
       </c>
-      <c r="I91">
+      <c r="I101">
         <f>Sheet3!I86</f>
         <v>0.64558000000000004</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
-      <c r="A92">
+    <row r="102" spans="1:9">
+      <c r="A102">
+        <v>8</v>
+      </c>
+      <c r="B102">
+        <v>2023</v>
+      </c>
+      <c r="C102">
         <v>6</v>
       </c>
-      <c r="B92">
-        <v>2023</v>
-      </c>
-      <c r="C92">
-        <v>6</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92" t="s">
-        <v>5</v>
-      </c>
-      <c r="F92">
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102">
         <f>Sheet3!F87</f>
         <v>33</v>
       </c>
-      <c r="G92">
+      <c r="G102">
         <f>Sheet3!G87</f>
         <v>119</v>
       </c>
-      <c r="H92">
+      <c r="H102">
         <f>Sheet3!H87</f>
         <v>124</v>
       </c>
-      <c r="I92">
+      <c r="I102">
         <f>Sheet3!I87</f>
         <v>0.65858000000000005</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
-      <c r="A93">
+    <row r="103" spans="1:9">
+      <c r="A103">
+        <v>8</v>
+      </c>
+      <c r="B103">
+        <v>2023</v>
+      </c>
+      <c r="C103">
         <v>6</v>
       </c>
-      <c r="B93">
-        <v>2023</v>
-      </c>
-      <c r="C93">
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
         <v>6</v>
       </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93" t="s">
-        <v>6</v>
-      </c>
-      <c r="F93">
+      <c r="F103">
         <f>Sheet3!F88</f>
         <v>32</v>
       </c>
-      <c r="G93">
+      <c r="G103">
         <f>Sheet3!G88</f>
         <v>129</v>
       </c>
-      <c r="H93">
+      <c r="H103">
         <f>Sheet3!H88</f>
         <v>124</v>
       </c>
-      <c r="I93">
+      <c r="I103">
         <f>Sheet3!I88</f>
         <v>0.63258000000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
-      <c r="A94">
+    <row r="104" spans="1:9">
+      <c r="A104">
+        <v>8</v>
+      </c>
+      <c r="B104">
+        <v>2023</v>
+      </c>
+      <c r="C104">
         <v>6</v>
       </c>
-      <c r="B94">
-        <v>2023</v>
-      </c>
-      <c r="C94">
-        <v>6</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="E94" t="str">
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104" t="str">
         <f>Sheet3!D89</f>
         <v>Best</v>
       </c>
-      <c r="F94">
+      <c r="F104">
         <f>Sheet3!F89</f>
         <v>32</v>
       </c>
-      <c r="G94">
+      <c r="G104">
         <f>Sheet3!G89</f>
         <v>126</v>
       </c>
-      <c r="H94">
+      <c r="H104">
         <f>Sheet3!H89</f>
         <v>107</v>
       </c>
-      <c r="I94">
+      <c r="I104">
         <f>Sheet3!I89</f>
         <v>0.63946999999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
-      <c r="A95">
+    <row r="105" spans="1:9">
+      <c r="A105">
+        <v>8</v>
+      </c>
+      <c r="B105">
+        <v>2023</v>
+      </c>
+      <c r="C105">
         <v>6</v>
       </c>
-      <c r="B95">
-        <v>2023</v>
-      </c>
-      <c r="C95">
-        <v>6</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95" t="str">
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105" t="str">
         <f>Sheet3!D90</f>
         <v>Midpoint</v>
       </c>
-      <c r="F95">
+      <c r="F105">
         <f>Sheet3!F90</f>
         <v>32</v>
       </c>
-      <c r="G95">
+      <c r="G105">
         <f>Sheet3!G90</f>
         <v>126</v>
       </c>
-      <c r="H95">
+      <c r="H105">
         <f>Sheet3!H90</f>
         <v>107</v>
       </c>
-      <c r="I95">
+      <c r="I105">
         <f>Sheet3!I90</f>
         <v>0.64046999999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
-      <c r="A96">
+    <row r="106" spans="1:9">
+      <c r="A106">
+        <v>8</v>
+      </c>
+      <c r="B106">
+        <v>2023</v>
+      </c>
+      <c r="C106">
         <v>6</v>
       </c>
-      <c r="B96">
-        <v>2023</v>
-      </c>
-      <c r="C96">
-        <v>6</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96" t="s">
-        <v>5</v>
-      </c>
-      <c r="F96">
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>5</v>
+      </c>
+      <c r="F106">
         <f>Sheet3!F91</f>
         <v>33</v>
       </c>
-      <c r="G96">
+      <c r="G106">
         <f>Sheet3!G91</f>
         <v>122</v>
       </c>
-      <c r="H96">
+      <c r="H106">
         <f>Sheet3!H91</f>
         <v>107</v>
       </c>
-      <c r="I96">
+      <c r="I106">
         <f>Sheet3!I91</f>
         <v>0.65246999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
-      <c r="A97">
+    <row r="107" spans="1:9">
+      <c r="A107">
+        <v>8</v>
+      </c>
+      <c r="B107">
+        <v>2023</v>
+      </c>
+      <c r="C107">
         <v>6</v>
       </c>
-      <c r="B97">
-        <v>2023</v>
-      </c>
-      <c r="C97">
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
         <v>6</v>
       </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97" t="s">
-        <v>6</v>
-      </c>
-      <c r="F97">
+      <c r="F107">
         <f>Sheet3!F92</f>
         <v>31</v>
       </c>
-      <c r="G97">
+      <c r="G107">
         <f>Sheet3!G92</f>
         <v>130</v>
       </c>
-      <c r="H97">
+      <c r="H107">
         <f>Sheet3!H92</f>
         <v>107</v>
       </c>
-      <c r="I97">
+      <c r="I107">
         <f>Sheet3!I92</f>
         <v>0.62846999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
-      <c r="A98">
+    <row r="108" spans="1:9">
+      <c r="A108">
+        <v>8</v>
+      </c>
+      <c r="B108">
+        <v>2023</v>
+      </c>
+      <c r="C108">
         <v>6</v>
       </c>
-      <c r="B98">
-        <v>2023</v>
-      </c>
-      <c r="C98">
-        <v>6</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98" t="str">
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108" t="str">
         <f>Sheet3!D93</f>
         <v>Best</v>
       </c>
-      <c r="F98">
+      <c r="F108">
         <f>Sheet3!F93</f>
         <v>31</v>
       </c>
-      <c r="G98">
+      <c r="G108">
         <f>Sheet3!G93</f>
         <v>130</v>
       </c>
-      <c r="H98">
+      <c r="H108">
         <f>Sheet3!H93</f>
         <v>130</v>
       </c>
-      <c r="I98">
+      <c r="I108">
         <f>Sheet3!I93</f>
         <v>0.63</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
-      <c r="A99">
+    <row r="109" spans="1:9">
+      <c r="A109">
+        <v>8</v>
+      </c>
+      <c r="B109">
+        <v>2023</v>
+      </c>
+      <c r="C109">
         <v>6</v>
       </c>
-      <c r="B99">
-        <v>2023</v>
-      </c>
-      <c r="C99">
-        <v>6</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99" t="str">
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109" t="str">
         <f>Sheet3!D94</f>
         <v>Midpoint</v>
       </c>
-      <c r="F99">
+      <c r="F109">
         <f>Sheet3!F94</f>
         <v>31.5</v>
       </c>
-      <c r="G99">
+      <c r="G109">
         <f>Sheet3!G94</f>
         <v>128.5</v>
       </c>
-      <c r="H99">
+      <c r="H109">
         <f>Sheet3!H94</f>
         <v>130</v>
       </c>
-      <c r="I99">
+      <c r="I109">
         <f>Sheet3!I94</f>
         <v>0.63249999999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
-      <c r="A100">
+    <row r="110" spans="1:9">
+      <c r="A110">
+        <v>8</v>
+      </c>
+      <c r="B110">
+        <v>2023</v>
+      </c>
+      <c r="C110">
         <v>6</v>
       </c>
-      <c r="B100">
-        <v>2023</v>
-      </c>
-      <c r="C100">
-        <v>6</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100">
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>5</v>
+      </c>
+      <c r="F110">
         <f>Sheet3!F95</f>
         <v>32</v>
       </c>
-      <c r="G100">
+      <c r="G110">
         <f>Sheet3!G95</f>
         <v>124</v>
       </c>
-      <c r="H100">
+      <c r="H110">
         <f>Sheet3!H95</f>
         <v>130</v>
       </c>
-      <c r="I100">
+      <c r="I110">
         <f>Sheet3!I95</f>
         <v>0.64500000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
-      <c r="A101">
+    <row r="111" spans="1:9">
+      <c r="A111">
+        <v>8</v>
+      </c>
+      <c r="B111">
+        <v>2023</v>
+      </c>
+      <c r="C111">
         <v>6</v>
       </c>
-      <c r="B101">
-        <v>2023</v>
-      </c>
-      <c r="C101">
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
         <v>6</v>
       </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="E101" t="s">
-        <v>6</v>
-      </c>
-      <c r="F101">
+      <c r="F111">
         <f>Sheet3!F96</f>
         <v>31</v>
       </c>
-      <c r="G101">
+      <c r="G111">
         <f>Sheet3!G96</f>
         <v>133</v>
       </c>
-      <c r="H101">
+      <c r="H111">
         <f>Sheet3!H96</f>
         <v>130</v>
       </c>
-      <c r="I101">
+      <c r="I111">
         <f>Sheet3!I96</f>
         <v>0.62</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
-      <c r="A102">
-        <v>7</v>
-      </c>
-      <c r="B102">
+    <row r="112" spans="1:9">
+      <c r="A112">
+        <v>9</v>
+      </c>
+      <c r="B112">
         <f>Sheet4!E2</f>
         <v>2023</v>
       </c>
-      <c r="C102">
+      <c r="C112">
         <f>Sheet4!F2</f>
         <v>11</v>
       </c>
-      <c r="D102">
+      <c r="D112">
         <f>Sheet4!G2</f>
         <v>16</v>
       </c>
-      <c r="E102" t="str">
+      <c r="E112" t="str">
         <f>Sheet4!D2</f>
         <v>Best</v>
       </c>
-      <c r="F102">
+      <c r="F112">
         <f>Sheet4!K2</f>
         <v>33</v>
       </c>
-      <c r="G102">
+      <c r="G112">
         <f>Sheet4!L2</f>
         <v>120</v>
       </c>
-      <c r="H102">
+      <c r="H112">
         <f>Sheet4!M2</f>
         <v>200</v>
       </c>
-      <c r="I102">
+      <c r="I112">
         <f>Sheet4!N2</f>
         <v>0.65705301699999996</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
-      <c r="A103">
-        <v>7</v>
-      </c>
-      <c r="B103">
+    <row r="113" spans="1:9">
+      <c r="A113">
+        <v>9</v>
+      </c>
+      <c r="B113">
         <f>Sheet4!E3</f>
         <v>2023</v>
       </c>
-      <c r="C103">
+      <c r="C113">
         <f>Sheet4!F3</f>
         <v>11</v>
       </c>
-      <c r="D103">
+      <c r="D113">
         <f>Sheet4!G3</f>
         <v>16</v>
       </c>
-      <c r="E103" t="s">
-        <v>5</v>
-      </c>
-      <c r="F103">
+      <c r="E113" t="s">
+        <v>5</v>
+      </c>
+      <c r="F113">
         <f>Sheet4!K3</f>
         <v>34</v>
       </c>
-      <c r="G103">
+      <c r="G113">
         <f>Sheet4!L3</f>
         <v>110</v>
       </c>
-      <c r="H103">
+      <c r="H113">
         <f>Sheet4!M3</f>
         <v>200</v>
       </c>
-      <c r="I103">
+      <c r="I113">
         <f>Sheet4!N3</f>
         <v>0.68705301699999999</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
-      <c r="A104">
-        <v>7</v>
-      </c>
-      <c r="B104">
+    <row r="114" spans="1:9">
+      <c r="A114">
+        <v>9</v>
+      </c>
+      <c r="B114">
         <f>Sheet4!E4</f>
         <v>2023</v>
       </c>
-      <c r="C104">
+      <c r="C114">
         <f>Sheet4!F4</f>
         <v>11</v>
       </c>
-      <c r="D104">
+      <c r="D114">
         <f>Sheet4!G4</f>
         <v>16</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E114" t="s">
         <v>6</v>
       </c>
-      <c r="F104">
+      <c r="F114">
         <f>Sheet4!K4</f>
         <v>31</v>
       </c>
-      <c r="G104">
+      <c r="G114">
         <f>Sheet4!L4</f>
         <v>131</v>
       </c>
-      <c r="H104">
+      <c r="H114">
         <f>Sheet4!M4</f>
         <v>200</v>
       </c>
-      <c r="I104">
+      <c r="I114">
         <f>Sheet4!N4</f>
         <v>0.62705301700000005</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
-      <c r="A105">
-        <v>7</v>
-      </c>
-      <c r="B105">
+    <row r="115" spans="1:9">
+      <c r="A115">
+        <v>9</v>
+      </c>
+      <c r="B115">
         <f>Sheet4!E5</f>
         <v>2023</v>
       </c>
-      <c r="C105">
+      <c r="C115">
         <f>Sheet4!F5</f>
         <v>11</v>
       </c>
-      <c r="D105">
+      <c r="D115">
         <f>Sheet4!G5</f>
         <v>16</v>
       </c>
-      <c r="E105" t="str">
+      <c r="E115" t="str">
         <f>Sheet4!D5</f>
         <v>Best</v>
       </c>
-      <c r="F105">
+      <c r="F115">
         <f>Sheet4!K5</f>
         <v>33</v>
       </c>
-      <c r="G105">
+      <c r="G115">
         <f>Sheet4!L5</f>
         <v>120</v>
       </c>
-      <c r="H105">
+      <c r="H115">
         <f>Sheet4!M5</f>
         <v>155</v>
       </c>
-      <c r="I105">
+      <c r="I115">
         <f>Sheet4!N5</f>
         <v>0.65577712300000002</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
-      <c r="A106">
-        <v>7</v>
-      </c>
-      <c r="B106">
+    <row r="116" spans="1:9">
+      <c r="A116">
+        <v>9</v>
+      </c>
+      <c r="B116">
         <f>Sheet4!E6</f>
         <v>2023</v>
       </c>
-      <c r="C106">
+      <c r="C116">
         <f>Sheet4!F6</f>
         <v>11</v>
       </c>
-      <c r="D106">
+      <c r="D116">
         <f>Sheet4!G6</f>
         <v>16</v>
       </c>
-      <c r="E106" t="s">
-        <v>5</v>
-      </c>
-      <c r="F106">
+      <c r="E116" t="s">
+        <v>5</v>
+      </c>
+      <c r="F116">
         <f>Sheet4!K6</f>
         <v>35</v>
       </c>
-      <c r="G106">
+      <c r="G116">
         <f>Sheet4!L6</f>
         <v>103</v>
       </c>
-      <c r="H106">
+      <c r="H116">
         <f>Sheet4!M6</f>
         <v>155</v>
       </c>
-      <c r="I106">
+      <c r="I116">
         <f>Sheet4!N6</f>
         <v>0.70577712299999995</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
-      <c r="A107">
-        <v>7</v>
-      </c>
-      <c r="B107">
+    <row r="117" spans="1:9">
+      <c r="A117">
+        <v>9</v>
+      </c>
+      <c r="B117">
         <f>Sheet4!E7</f>
         <v>2023</v>
       </c>
-      <c r="C107">
+      <c r="C117">
         <f>Sheet4!F7</f>
         <v>11</v>
       </c>
-      <c r="D107">
+      <c r="D117">
         <f>Sheet4!G7</f>
         <v>16</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E117" t="s">
         <v>6</v>
       </c>
-      <c r="F107">
+      <c r="F117">
         <f>Sheet4!K7</f>
         <v>31</v>
       </c>
-      <c r="G107">
+      <c r="G117">
         <f>Sheet4!L7</f>
         <v>133</v>
       </c>
-      <c r="H107">
+      <c r="H117">
         <f>Sheet4!M7</f>
         <v>155</v>
       </c>
-      <c r="I107">
+      <c r="I117">
         <f>Sheet4!N7</f>
         <v>0.62077712299999999</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
-      <c r="A108">
-        <v>7</v>
-      </c>
-      <c r="B108">
+    <row r="118" spans="1:9">
+      <c r="A118">
+        <v>9</v>
+      </c>
+      <c r="B118">
         <f>Sheet4!E8</f>
         <v>2023</v>
       </c>
-      <c r="C108">
+      <c r="C118">
         <f>Sheet4!F8</f>
         <v>11</v>
       </c>
-      <c r="D108">
+      <c r="D118">
         <f>Sheet4!G8</f>
         <v>16</v>
       </c>
-      <c r="E108" t="str">
+      <c r="E118" t="str">
         <f>Sheet4!D8</f>
         <v>Best</v>
       </c>
-      <c r="F108">
+      <c r="F118">
         <f>Sheet4!K8</f>
         <v>33</v>
       </c>
-      <c r="G108">
+      <c r="G118">
         <f>Sheet4!L8</f>
         <v>116</v>
       </c>
-      <c r="H108">
+      <c r="H118">
         <f>Sheet4!M8</f>
         <v>207</v>
       </c>
-      <c r="I108">
+      <c r="I118">
         <f>Sheet4!N8</f>
         <v>0.66939097299999994</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
-      <c r="A109">
-        <v>7</v>
-      </c>
-      <c r="B109">
+    <row r="119" spans="1:9">
+      <c r="A119">
+        <v>9</v>
+      </c>
+      <c r="B119">
         <f>Sheet4!E9</f>
         <v>2023</v>
       </c>
-      <c r="C109">
+      <c r="C119">
         <f>Sheet4!F9</f>
         <v>11</v>
       </c>
-      <c r="D109">
+      <c r="D119">
         <f>Sheet4!G9</f>
         <v>16</v>
       </c>
-      <c r="E109" t="s">
-        <v>5</v>
-      </c>
-      <c r="F109">
+      <c r="E119" t="s">
+        <v>5</v>
+      </c>
+      <c r="F119">
         <f>Sheet4!K9</f>
         <v>34</v>
       </c>
-      <c r="G109">
+      <c r="G119">
         <f>Sheet4!L9</f>
         <v>109</v>
       </c>
-      <c r="H109">
+      <c r="H119">
         <f>Sheet4!M9</f>
         <v>207</v>
       </c>
-      <c r="I109">
+      <c r="I119">
         <f>Sheet4!N9</f>
         <v>0.68939097299999996</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
-      <c r="A110">
-        <v>7</v>
-      </c>
-      <c r="B110">
+    <row r="120" spans="1:9">
+      <c r="A120">
+        <v>9</v>
+      </c>
+      <c r="B120">
         <f>Sheet4!E10</f>
         <v>2023</v>
       </c>
-      <c r="C110">
+      <c r="C120">
         <f>Sheet4!F10</f>
         <v>11</v>
       </c>
-      <c r="D110">
+      <c r="D120">
         <f>Sheet4!G10</f>
         <v>16</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E120" t="s">
         <v>6</v>
       </c>
-      <c r="F110">
+      <c r="F120">
         <f>Sheet4!K10</f>
         <v>32</v>
       </c>
-      <c r="G110">
+      <c r="G120">
         <f>Sheet4!L10</f>
         <v>126</v>
       </c>
-      <c r="H110">
+      <c r="H120">
         <f>Sheet4!M10</f>
         <v>207</v>
       </c>
-      <c r="I110">
+      <c r="I120">
         <f>Sheet4!N10</f>
         <v>0.63939097300000003</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
-      <c r="A111">
-        <v>7</v>
-      </c>
-      <c r="B111">
+    <row r="121" spans="1:9">
+      <c r="A121">
+        <v>9</v>
+      </c>
+      <c r="B121">
         <f>Sheet4!E11</f>
         <v>2023</v>
       </c>
-      <c r="C111">
+      <c r="C121">
         <f>Sheet4!F11</f>
         <v>11</v>
       </c>
-      <c r="D111">
+      <c r="D121">
         <f>Sheet4!G11</f>
         <v>16</v>
       </c>
-      <c r="E111" t="str">
+      <c r="E121" t="str">
         <f>Sheet4!D11</f>
         <v>Best</v>
       </c>
-      <c r="F111">
+      <c r="F121">
         <f>Sheet4!K11</f>
         <v>33</v>
       </c>
-      <c r="G111">
+      <c r="G121">
         <f>Sheet4!L11</f>
         <v>119</v>
       </c>
-      <c r="H111">
+      <c r="H121">
         <f>Sheet4!M11</f>
         <v>206</v>
       </c>
-      <c r="I111">
+      <c r="I121">
         <f>Sheet4!N11</f>
         <v>0.65983886999999997</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
-      <c r="A112">
-        <v>7</v>
-      </c>
-      <c r="B112">
+    <row r="122" spans="1:9">
+      <c r="A122">
+        <v>9</v>
+      </c>
+      <c r="B122">
         <f>Sheet4!E12</f>
         <v>2023</v>
       </c>
-      <c r="C112">
+      <c r="C122">
         <f>Sheet4!F12</f>
         <v>11</v>
       </c>
-      <c r="D112">
+      <c r="D122">
         <f>Sheet4!G12</f>
         <v>16</v>
       </c>
-      <c r="E112" t="s">
-        <v>5</v>
-      </c>
-      <c r="F112">
+      <c r="E122" t="s">
+        <v>5</v>
+      </c>
+      <c r="F122">
         <f>Sheet4!K12</f>
         <v>34</v>
       </c>
-      <c r="G112">
+      <c r="G122">
         <f>Sheet4!L12</f>
         <v>110</v>
       </c>
-      <c r="H112">
+      <c r="H122">
         <f>Sheet4!M12</f>
         <v>206</v>
       </c>
-      <c r="I112">
+      <c r="I122">
         <f>Sheet4!N12</f>
         <v>0.68483886999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
-      <c r="A113">
-        <v>7</v>
-      </c>
-      <c r="B113">
+    <row r="123" spans="1:9">
+      <c r="A123">
+        <v>9</v>
+      </c>
+      <c r="B123">
         <f>Sheet4!E13</f>
         <v>2023</v>
       </c>
-      <c r="C113">
+      <c r="C123">
         <f>Sheet4!F13</f>
         <v>11</v>
       </c>
-      <c r="D113">
+      <c r="D123">
         <f>Sheet4!G13</f>
         <v>16</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E123" t="s">
         <v>6</v>
       </c>
-      <c r="F113">
+      <c r="F123">
         <f>Sheet4!K13</f>
         <v>31</v>
       </c>
-      <c r="G113">
+      <c r="G123">
         <f>Sheet4!L13</f>
         <v>130</v>
       </c>
-      <c r="H113">
+      <c r="H123">
         <f>Sheet4!M13</f>
         <v>206</v>
       </c>
-      <c r="I113">
+      <c r="I123">
         <f>Sheet4!N13</f>
         <v>0.62983887000000005</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
-      <c r="A114">
-        <v>7</v>
-      </c>
-      <c r="B114">
+    <row r="124" spans="1:9">
+      <c r="A124">
+        <v>9</v>
+      </c>
+      <c r="B124">
         <f>Sheet4!E14</f>
         <v>2023</v>
       </c>
-      <c r="C114">
+      <c r="C124">
         <f>Sheet4!F14</f>
         <v>11</v>
       </c>
-      <c r="D114">
+      <c r="D124">
         <f>Sheet4!G14</f>
         <v>16</v>
       </c>
-      <c r="E114" t="str">
+      <c r="E124" t="str">
         <f>Sheet4!D14</f>
         <v>Best</v>
       </c>
-      <c r="F114">
+      <c r="F124">
         <f>Sheet4!K14</f>
         <v>34</v>
       </c>
-      <c r="G114">
+      <c r="G124">
         <f>Sheet4!L14</f>
         <v>114</v>
       </c>
-      <c r="H114">
+      <c r="H124">
         <f>Sheet4!M14</f>
         <v>253</v>
       </c>
-      <c r="I114">
+      <c r="I124">
         <f>Sheet4!N14</f>
         <v>0.67560319099999999</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
-      <c r="A115">
-        <v>7</v>
-      </c>
-      <c r="B115">
+    <row r="125" spans="1:9">
+      <c r="A125">
+        <v>9</v>
+      </c>
+      <c r="B125">
         <f>Sheet4!E15</f>
         <v>2023</v>
       </c>
-      <c r="C115">
+      <c r="C125">
         <f>Sheet4!F15</f>
         <v>11</v>
       </c>
-      <c r="D115">
+      <c r="D125">
         <f>Sheet4!G15</f>
         <v>16</v>
       </c>
-      <c r="E115" t="s">
-        <v>5</v>
-      </c>
-      <c r="F115">
+      <c r="E125" t="s">
+        <v>5</v>
+      </c>
+      <c r="F125">
         <f>Sheet4!K15</f>
         <v>35</v>
       </c>
-      <c r="G115">
+      <c r="G125">
         <f>Sheet4!L15</f>
         <v>103</v>
       </c>
-      <c r="H115">
+      <c r="H125">
         <f>Sheet4!M15</f>
         <v>253</v>
       </c>
-      <c r="I115">
+      <c r="I125">
         <f>Sheet4!N15</f>
         <v>0.70560319100000002</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
-      <c r="A116">
-        <v>7</v>
-      </c>
-      <c r="B116">
+    <row r="126" spans="1:9">
+      <c r="A126">
+        <v>9</v>
+      </c>
+      <c r="B126">
         <f>Sheet4!E16</f>
         <v>2023</v>
       </c>
-      <c r="C116">
+      <c r="C126">
         <f>Sheet4!F16</f>
         <v>11</v>
       </c>
-      <c r="D116">
+      <c r="D126">
         <f>Sheet4!G16</f>
         <v>16</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E126" t="s">
         <v>6</v>
       </c>
-      <c r="F116">
+      <c r="F126">
         <f>Sheet4!K16</f>
         <v>32</v>
       </c>
-      <c r="G116">
+      <c r="G126">
         <f>Sheet4!L16</f>
         <v>124</v>
       </c>
-      <c r="H116">
+      <c r="H126">
         <f>Sheet4!M16</f>
         <v>253</v>
       </c>
-      <c r="I116">
+      <c r="I126">
         <f>Sheet4!N16</f>
         <v>0.64560319099999997</v>
       </c>
@@ -7644,16 +7913,16 @@
       <c r="E17" s="54">
         <v>1</v>
       </c>
-      <c r="F17" s="64">
+      <c r="F17" s="31">
         <v>32</v>
       </c>
-      <c r="G17" s="64">
+      <c r="G17" s="31">
         <v>126</v>
       </c>
-      <c r="H17" s="64">
+      <c r="H17" s="31">
         <v>120</v>
       </c>
-      <c r="I17" s="65">
+      <c r="I17" s="64">
         <v>0.64078000000000002</v>
       </c>
       <c r="J17" s="55">
@@ -7679,22 +7948,22 @@
       <c r="E18" s="54">
         <v>1</v>
       </c>
-      <c r="F18" s="64">
+      <c r="F18" s="31">
         <v>32</v>
       </c>
-      <c r="G18" s="64">
+      <c r="G18" s="31">
         <v>126</v>
       </c>
-      <c r="H18" s="64">
+      <c r="H18" s="31">
         <v>120</v>
       </c>
-      <c r="I18" s="65">
+      <c r="I18" s="64">
         <v>0.63978000000000002</v>
       </c>
-      <c r="J18" s="64">
+      <c r="J18" s="31">
         <v>54.55</v>
       </c>
-      <c r="K18" s="65">
+      <c r="K18" s="64">
         <v>8.5</v>
       </c>
     </row>
@@ -7714,16 +7983,16 @@
       <c r="E19" s="54">
         <v>1</v>
       </c>
-      <c r="F19" s="64">
+      <c r="F19" s="31">
         <v>33</v>
       </c>
-      <c r="G19" s="64">
+      <c r="G19" s="31">
         <v>122</v>
       </c>
-      <c r="H19" s="64">
+      <c r="H19" s="31">
         <v>120</v>
       </c>
-      <c r="I19" s="65">
+      <c r="I19" s="64">
         <v>0.65178000000000003</v>
       </c>
       <c r="J19" s="55">
@@ -7734,37 +8003,37 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="67">
+      <c r="A20" s="66">
         <v>45057</v>
       </c>
-      <c r="B20" s="68">
-        <v>1</v>
-      </c>
-      <c r="C20" s="66">
-        <v>1</v>
-      </c>
-      <c r="D20" s="69" t="s">
+      <c r="B20" s="67">
+        <v>1</v>
+      </c>
+      <c r="C20" s="65">
+        <v>1</v>
+      </c>
+      <c r="D20" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="69">
-        <v>1</v>
-      </c>
-      <c r="F20" s="70">
+      <c r="E20" s="68">
+        <v>1</v>
+      </c>
+      <c r="F20" s="69">
         <v>31</v>
       </c>
-      <c r="G20" s="70">
+      <c r="G20" s="69">
         <v>130</v>
       </c>
-      <c r="H20" s="70">
+      <c r="H20" s="69">
         <v>120</v>
       </c>
-      <c r="I20" s="71">
+      <c r="I20" s="70">
         <v>0.62778</v>
       </c>
-      <c r="J20" s="66">
+      <c r="J20" s="65">
         <v>52.7</v>
       </c>
-      <c r="K20" s="69">
+      <c r="K20" s="68">
         <v>8.5</v>
       </c>
     </row>
@@ -7784,16 +8053,16 @@
       <c r="E21" s="54">
         <v>2</v>
       </c>
-      <c r="F21" s="64">
+      <c r="F21" s="31">
         <v>32</v>
       </c>
-      <c r="G21" s="64">
+      <c r="G21" s="31">
         <v>128</v>
       </c>
-      <c r="H21" s="64">
+      <c r="H21" s="31">
         <v>126</v>
       </c>
-      <c r="I21" s="65">
+      <c r="I21" s="64">
         <v>0.63341999999999998</v>
       </c>
       <c r="J21" s="55">
@@ -7819,22 +8088,22 @@
       <c r="E22" s="54">
         <v>2</v>
       </c>
-      <c r="F22" s="64">
+      <c r="F22" s="31">
         <v>32</v>
       </c>
-      <c r="G22" s="64">
+      <c r="G22" s="31">
         <v>127.5</v>
       </c>
-      <c r="H22" s="64">
+      <c r="H22" s="31">
         <v>126</v>
       </c>
-      <c r="I22" s="65">
+      <c r="I22" s="64">
         <v>0.63641999999999999</v>
       </c>
-      <c r="J22" s="64">
+      <c r="J22" s="31">
         <v>55.4</v>
       </c>
-      <c r="K22" s="65">
+      <c r="K22" s="64">
         <v>9.1999999999999993</v>
       </c>
     </row>
@@ -7854,16 +8123,16 @@
       <c r="E23" s="54">
         <v>2</v>
       </c>
-      <c r="F23" s="64">
+      <c r="F23" s="31">
         <v>33</v>
       </c>
-      <c r="G23" s="64">
+      <c r="G23" s="31">
         <v>122</v>
       </c>
-      <c r="H23" s="64">
+      <c r="H23" s="31">
         <v>126</v>
       </c>
-      <c r="I23" s="65">
+      <c r="I23" s="64">
         <v>0.65242</v>
       </c>
       <c r="J23" s="55">
@@ -7874,37 +8143,37 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="67">
+      <c r="A24" s="66">
         <v>45057</v>
       </c>
-      <c r="B24" s="68">
-        <v>1</v>
-      </c>
-      <c r="C24" s="66">
-        <v>1</v>
-      </c>
-      <c r="D24" s="69" t="s">
+      <c r="B24" s="67">
+        <v>1</v>
+      </c>
+      <c r="C24" s="65">
+        <v>1</v>
+      </c>
+      <c r="D24" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="69">
-        <v>2</v>
-      </c>
-      <c r="F24" s="70">
+      <c r="E24" s="68">
+        <v>2</v>
+      </c>
+      <c r="F24" s="69">
         <v>31</v>
       </c>
-      <c r="G24" s="70">
+      <c r="G24" s="69">
         <v>133</v>
       </c>
-      <c r="H24" s="70">
+      <c r="H24" s="69">
         <v>126</v>
       </c>
-      <c r="I24" s="71">
+      <c r="I24" s="70">
         <v>0.62041999999999997</v>
       </c>
-      <c r="J24" s="66">
+      <c r="J24" s="65">
         <v>54.1</v>
       </c>
-      <c r="K24" s="69">
+      <c r="K24" s="68">
         <v>9.1999999999999993</v>
       </c>
     </row>
@@ -7924,16 +8193,16 @@
       <c r="E25" s="54">
         <v>3</v>
       </c>
-      <c r="F25" s="64">
+      <c r="F25" s="31">
         <v>33</v>
       </c>
-      <c r="G25" s="64">
+      <c r="G25" s="31">
         <v>122</v>
       </c>
-      <c r="H25" s="64">
+      <c r="H25" s="31">
         <v>124</v>
       </c>
-      <c r="I25" s="65">
+      <c r="I25" s="64">
         <v>0.65258000000000005</v>
       </c>
       <c r="J25" s="55">
@@ -7959,22 +8228,22 @@
       <c r="E26" s="54">
         <v>3</v>
       </c>
-      <c r="F26" s="64">
+      <c r="F26" s="31">
         <v>32.5</v>
       </c>
-      <c r="G26" s="64">
+      <c r="G26" s="31">
         <v>124</v>
       </c>
-      <c r="H26" s="64">
+      <c r="H26" s="31">
         <v>124</v>
       </c>
-      <c r="I26" s="65">
+      <c r="I26" s="64">
         <v>0.64558000000000004</v>
       </c>
-      <c r="J26" s="64">
+      <c r="J26" s="31">
         <v>55</v>
       </c>
-      <c r="K26" s="65">
+      <c r="K26" s="64">
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -7994,16 +8263,16 @@
       <c r="E27" s="54">
         <v>3</v>
       </c>
-      <c r="F27" s="64">
+      <c r="F27" s="31">
         <v>33</v>
       </c>
-      <c r="G27" s="64">
+      <c r="G27" s="31">
         <v>119</v>
       </c>
-      <c r="H27" s="64">
+      <c r="H27" s="31">
         <v>124</v>
       </c>
-      <c r="I27" s="65">
+      <c r="I27" s="64">
         <v>0.65858000000000005</v>
       </c>
       <c r="J27" s="55">
@@ -8014,37 +8283,37 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="67">
+      <c r="A28" s="66">
         <v>45057</v>
       </c>
-      <c r="B28" s="68">
-        <v>1</v>
-      </c>
-      <c r="C28" s="66">
-        <v>1</v>
-      </c>
-      <c r="D28" s="69" t="s">
+      <c r="B28" s="67">
+        <v>1</v>
+      </c>
+      <c r="C28" s="65">
+        <v>1</v>
+      </c>
+      <c r="D28" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="E28" s="69">
+      <c r="E28" s="68">
         <v>3</v>
       </c>
-      <c r="F28" s="70">
+      <c r="F28" s="69">
         <v>32</v>
       </c>
-      <c r="G28" s="70">
+      <c r="G28" s="69">
         <v>129</v>
       </c>
-      <c r="H28" s="70">
+      <c r="H28" s="69">
         <v>124</v>
       </c>
-      <c r="I28" s="71">
+      <c r="I28" s="70">
         <v>0.63258000000000003</v>
       </c>
-      <c r="J28" s="66">
+      <c r="J28" s="65">
         <v>52.7</v>
       </c>
-      <c r="K28" s="69">
+      <c r="K28" s="68">
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -8064,16 +8333,16 @@
       <c r="E29" s="54">
         <v>4</v>
       </c>
-      <c r="F29" s="64">
+      <c r="F29" s="31">
         <v>32</v>
       </c>
-      <c r="G29" s="64">
+      <c r="G29" s="31">
         <v>126</v>
       </c>
-      <c r="H29" s="64">
+      <c r="H29" s="31">
         <v>107</v>
       </c>
-      <c r="I29" s="65">
+      <c r="I29" s="64">
         <v>0.63946999999999998</v>
       </c>
       <c r="J29" s="55">
@@ -8099,22 +8368,22 @@
       <c r="E30" s="54">
         <v>4</v>
       </c>
-      <c r="F30" s="64">
+      <c r="F30" s="31">
         <v>32</v>
       </c>
-      <c r="G30" s="64">
+      <c r="G30" s="31">
         <v>126</v>
       </c>
-      <c r="H30" s="64">
+      <c r="H30" s="31">
         <v>107</v>
       </c>
-      <c r="I30" s="65">
+      <c r="I30" s="64">
         <v>0.64046999999999998</v>
       </c>
-      <c r="J30" s="64">
+      <c r="J30" s="31">
         <v>55.65</v>
       </c>
-      <c r="K30" s="65">
+      <c r="K30" s="64">
         <v>7.1</v>
       </c>
     </row>
@@ -8134,16 +8403,16 @@
       <c r="E31" s="54">
         <v>4</v>
       </c>
-      <c r="F31" s="64">
+      <c r="F31" s="31">
         <v>33</v>
       </c>
-      <c r="G31" s="64">
+      <c r="G31" s="31">
         <v>122</v>
       </c>
-      <c r="H31" s="64">
+      <c r="H31" s="31">
         <v>107</v>
       </c>
-      <c r="I31" s="65">
+      <c r="I31" s="64">
         <v>0.65246999999999999</v>
       </c>
       <c r="J31" s="55">
@@ -8154,37 +8423,37 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="67">
+      <c r="A32" s="66">
         <v>45057</v>
       </c>
-      <c r="B32" s="68">
-        <v>1</v>
-      </c>
-      <c r="C32" s="66">
-        <v>1</v>
-      </c>
-      <c r="D32" s="69" t="s">
+      <c r="B32" s="67">
+        <v>1</v>
+      </c>
+      <c r="C32" s="65">
+        <v>1</v>
+      </c>
+      <c r="D32" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="69">
+      <c r="E32" s="68">
         <v>4</v>
       </c>
-      <c r="F32" s="70">
+      <c r="F32" s="69">
         <v>31</v>
       </c>
-      <c r="G32" s="70">
+      <c r="G32" s="69">
         <v>130</v>
       </c>
-      <c r="H32" s="70">
+      <c r="H32" s="69">
         <v>107</v>
       </c>
-      <c r="I32" s="71">
+      <c r="I32" s="70">
         <v>0.62846999999999997</v>
       </c>
-      <c r="J32" s="66">
+      <c r="J32" s="65">
         <v>53.8</v>
       </c>
-      <c r="K32" s="69">
+      <c r="K32" s="68">
         <v>7.1</v>
       </c>
     </row>
@@ -8204,16 +8473,16 @@
       <c r="E33" s="54">
         <v>5</v>
       </c>
-      <c r="F33" s="64">
+      <c r="F33" s="31">
         <v>31</v>
       </c>
-      <c r="G33" s="64">
+      <c r="G33" s="31">
         <v>130</v>
       </c>
-      <c r="H33" s="64">
+      <c r="H33" s="31">
         <v>130</v>
       </c>
-      <c r="I33" s="65">
+      <c r="I33" s="64">
         <v>0.63</v>
       </c>
       <c r="J33" s="55">
@@ -8239,22 +8508,22 @@
       <c r="E34" s="54">
         <v>5</v>
       </c>
-      <c r="F34" s="64">
+      <c r="F34" s="31">
         <v>31.5</v>
       </c>
-      <c r="G34" s="64">
+      <c r="G34" s="31">
         <v>128.5</v>
       </c>
-      <c r="H34" s="64">
+      <c r="H34" s="31">
         <v>130</v>
       </c>
-      <c r="I34" s="65">
+      <c r="I34" s="64">
         <v>0.63249999999999995</v>
       </c>
-      <c r="J34" s="64">
+      <c r="J34" s="31">
         <v>55.25</v>
       </c>
-      <c r="K34" s="65">
+      <c r="K34" s="64">
         <v>7.9</v>
       </c>
     </row>
@@ -8274,16 +8543,16 @@
       <c r="E35" s="54">
         <v>5</v>
       </c>
-      <c r="F35" s="64">
+      <c r="F35" s="31">
         <v>32</v>
       </c>
-      <c r="G35" s="64">
+      <c r="G35" s="31">
         <v>124</v>
       </c>
-      <c r="H35" s="64">
+      <c r="H35" s="31">
         <v>130</v>
       </c>
-      <c r="I35" s="65">
+      <c r="I35" s="64">
         <v>0.64500000000000002</v>
       </c>
       <c r="J35" s="55">
@@ -8294,7 +8563,7 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="72">
+      <c r="A36" s="71">
         <v>45057</v>
       </c>
       <c r="B36" s="62">
@@ -8309,16 +8578,16 @@
       <c r="E36" s="51">
         <v>5</v>
       </c>
-      <c r="F36" s="73">
+      <c r="F36" s="72">
         <v>31</v>
       </c>
-      <c r="G36" s="73">
+      <c r="G36" s="72">
         <v>133</v>
       </c>
-      <c r="H36" s="73">
+      <c r="H36" s="72">
         <v>130</v>
       </c>
-      <c r="I36" s="73">
+      <c r="I36" s="72">
         <v>0.62</v>
       </c>
       <c r="J36" s="62">
@@ -8379,22 +8648,22 @@
       <c r="E38" s="54">
         <v>1</v>
       </c>
-      <c r="F38" s="64">
+      <c r="F38" s="31">
         <v>32.5</v>
       </c>
-      <c r="G38" s="64">
+      <c r="G38" s="31">
         <v>122</v>
       </c>
-      <c r="H38" s="64">
+      <c r="H38" s="31">
         <v>93</v>
       </c>
-      <c r="I38" s="65">
+      <c r="I38" s="64">
         <v>0.65176000000000001</v>
       </c>
-      <c r="J38" s="64">
+      <c r="J38" s="31">
         <v>55.7</v>
       </c>
-      <c r="K38" s="65">
+      <c r="K38" s="64">
         <v>8.5</v>
       </c>
     </row>
@@ -8434,7 +8703,7 @@
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="74">
+      <c r="A40" s="73">
         <v>45070</v>
       </c>
       <c r="B40" s="60">
@@ -8443,10 +8712,10 @@
       <c r="C40" s="59">
         <v>1</v>
       </c>
-      <c r="D40" s="69" t="s">
+      <c r="D40" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="E40" s="69">
+      <c r="E40" s="68">
         <v>1</v>
       </c>
       <c r="F40" s="59">
@@ -8519,22 +8788,22 @@
       <c r="E42" s="54">
         <v>2</v>
       </c>
-      <c r="F42" s="64">
+      <c r="F42" s="31">
         <v>33</v>
       </c>
-      <c r="G42" s="64">
+      <c r="G42" s="31">
         <v>118.5</v>
       </c>
-      <c r="H42" s="64">
+      <c r="H42" s="31">
         <v>99</v>
       </c>
-      <c r="I42" s="65">
+      <c r="I42" s="64">
         <v>0.66090000000000004</v>
       </c>
-      <c r="J42" s="64">
+      <c r="J42" s="31">
         <v>55.85</v>
       </c>
-      <c r="K42" s="65">
+      <c r="K42" s="64">
         <v>7.6</v>
       </c>
     </row>
@@ -8574,7 +8843,7 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="74">
+      <c r="A44" s="73">
         <v>45070</v>
       </c>
       <c r="B44" s="60">
@@ -8583,10 +8852,10 @@
       <c r="C44" s="59">
         <v>1</v>
       </c>
-      <c r="D44" s="69" t="s">
+      <c r="D44" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="E44" s="69">
+      <c r="E44" s="68">
         <v>2</v>
       </c>
       <c r="F44" s="59">
@@ -8659,22 +8928,22 @@
       <c r="E46" s="54">
         <v>3</v>
       </c>
-      <c r="F46" s="64">
+      <c r="F46" s="31">
         <v>33.5</v>
       </c>
-      <c r="G46" s="64">
+      <c r="G46" s="31">
         <v>113.5</v>
       </c>
-      <c r="H46" s="64">
+      <c r="H46" s="31">
         <v>104</v>
       </c>
-      <c r="I46" s="65">
+      <c r="I46" s="64">
         <v>0.67649999999999999</v>
       </c>
-      <c r="J46" s="64">
+      <c r="J46" s="31">
         <v>56.4</v>
       </c>
-      <c r="K46" s="65">
+      <c r="K46" s="64">
         <v>7.4</v>
       </c>
     </row>
@@ -8714,7 +8983,7 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="74">
+      <c r="A48" s="73">
         <v>45070</v>
       </c>
       <c r="B48" s="60">
@@ -8723,10 +8992,10 @@
       <c r="C48" s="59">
         <v>1</v>
       </c>
-      <c r="D48" s="69" t="s">
+      <c r="D48" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="E48" s="69">
+      <c r="E48" s="68">
         <v>3</v>
       </c>
       <c r="F48" s="59">
@@ -8799,22 +9068,22 @@
       <c r="E50" s="54">
         <v>4</v>
       </c>
-      <c r="F50" s="64">
+      <c r="F50" s="31">
         <v>32.5</v>
       </c>
-      <c r="G50" s="64">
+      <c r="G50" s="31">
         <v>121</v>
       </c>
-      <c r="H50" s="64">
+      <c r="H50" s="31">
         <v>121</v>
       </c>
-      <c r="I50" s="65">
+      <c r="I50" s="64">
         <v>0.65547</v>
       </c>
-      <c r="J50" s="64">
+      <c r="J50" s="31">
         <v>55.95</v>
       </c>
-      <c r="K50" s="65">
+      <c r="K50" s="64">
         <v>7.9</v>
       </c>
     </row>
@@ -8854,7 +9123,7 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="74">
+      <c r="A52" s="73">
         <v>45070</v>
       </c>
       <c r="B52" s="60">
@@ -8863,10 +9132,10 @@
       <c r="C52" s="59">
         <v>1</v>
       </c>
-      <c r="D52" s="69" t="s">
+      <c r="D52" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="E52" s="69">
+      <c r="E52" s="68">
         <v>4</v>
       </c>
       <c r="F52" s="59">
@@ -8939,22 +9208,22 @@
       <c r="E54" s="54">
         <v>5</v>
       </c>
-      <c r="F54" s="64">
+      <c r="F54" s="31">
         <v>33</v>
       </c>
-      <c r="G54" s="64">
+      <c r="G54" s="31">
         <v>117</v>
       </c>
-      <c r="H54" s="64">
+      <c r="H54" s="31">
         <v>127</v>
       </c>
-      <c r="I54" s="65">
+      <c r="I54" s="64">
         <v>0.66459999999999997</v>
       </c>
-      <c r="J54" s="64">
+      <c r="J54" s="31">
         <v>55.35</v>
       </c>
-      <c r="K54" s="65">
+      <c r="K54" s="64">
         <v>7.8</v>
       </c>
     </row>
@@ -8994,7 +9263,7 @@
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="72">
+      <c r="A56" s="71">
         <v>45070</v>
       </c>
       <c r="B56" s="62">
@@ -9079,22 +9348,22 @@
       <c r="E58" s="54">
         <v>1</v>
       </c>
-      <c r="F58" s="64">
+      <c r="F58" s="31">
         <v>33</v>
       </c>
-      <c r="G58" s="64">
+      <c r="G58" s="31">
         <v>118</v>
       </c>
-      <c r="H58" s="64">
+      <c r="H58" s="31">
         <v>112</v>
       </c>
-      <c r="I58" s="65">
+      <c r="I58" s="64">
         <v>0.66200999999999999</v>
       </c>
-      <c r="J58" s="64">
+      <c r="J58" s="31">
         <v>55.25</v>
       </c>
-      <c r="K58" s="65">
+      <c r="K58" s="64">
         <v>9</v>
       </c>
     </row>
@@ -9134,7 +9403,7 @@
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="74">
+      <c r="A60" s="73">
         <v>45070</v>
       </c>
       <c r="B60" s="60">
@@ -9143,10 +9412,10 @@
       <c r="C60" s="59">
         <v>2</v>
       </c>
-      <c r="D60" s="69" t="s">
+      <c r="D60" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="E60" s="69">
+      <c r="E60" s="68">
         <v>1</v>
       </c>
       <c r="F60" s="59">
@@ -9219,22 +9488,22 @@
       <c r="E62" s="54">
         <v>2</v>
       </c>
-      <c r="F62" s="64">
+      <c r="F62" s="31">
         <v>33</v>
       </c>
-      <c r="G62" s="64">
+      <c r="G62" s="31">
         <v>117.5</v>
       </c>
-      <c r="H62" s="64">
+      <c r="H62" s="31">
         <v>126</v>
       </c>
-      <c r="I62" s="65">
+      <c r="I62" s="64">
         <v>0.66418999999999995</v>
       </c>
-      <c r="J62" s="64">
+      <c r="J62" s="31">
         <v>54.7</v>
       </c>
-      <c r="K62" s="65">
+      <c r="K62" s="64">
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -9274,7 +9543,7 @@
       </c>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="74">
+      <c r="A64" s="73">
         <v>45070</v>
       </c>
       <c r="B64" s="60">
@@ -9283,10 +9552,10 @@
       <c r="C64" s="59">
         <v>2</v>
       </c>
-      <c r="D64" s="69" t="s">
+      <c r="D64" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="E64" s="69">
+      <c r="E64" s="68">
         <v>2</v>
       </c>
       <c r="F64" s="59">
@@ -9359,22 +9628,22 @@
       <c r="E66" s="54">
         <v>3</v>
       </c>
-      <c r="F66" s="64">
+      <c r="F66" s="31">
         <v>33</v>
       </c>
-      <c r="G66" s="64">
+      <c r="G66" s="31">
         <v>118</v>
       </c>
-      <c r="H66" s="64">
+      <c r="H66" s="31">
         <v>126</v>
       </c>
-      <c r="I66" s="65">
+      <c r="I66" s="64">
         <v>0.66391</v>
       </c>
-      <c r="J66" s="64">
+      <c r="J66" s="31">
         <v>54.7</v>
       </c>
-      <c r="K66" s="65">
+      <c r="K66" s="64">
         <v>8.1</v>
       </c>
     </row>
@@ -9414,7 +9683,7 @@
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="74">
+      <c r="A68" s="73">
         <v>45070</v>
       </c>
       <c r="B68" s="60">
@@ -9423,10 +9692,10 @@
       <c r="C68" s="59">
         <v>2</v>
       </c>
-      <c r="D68" s="69" t="s">
+      <c r="D68" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="E68" s="69">
+      <c r="E68" s="68">
         <v>3</v>
       </c>
       <c r="F68" s="59">
@@ -9499,22 +9768,22 @@
       <c r="E70" s="54">
         <v>4</v>
       </c>
-      <c r="F70" s="64">
+      <c r="F70" s="31">
         <v>33</v>
       </c>
-      <c r="G70" s="64">
+      <c r="G70" s="31">
         <v>117</v>
       </c>
-      <c r="H70" s="64">
+      <c r="H70" s="31">
         <v>136</v>
       </c>
-      <c r="I70" s="65">
+      <c r="I70" s="64">
         <v>0.6653</v>
       </c>
-      <c r="J70" s="64">
+      <c r="J70" s="31">
         <v>55.5</v>
       </c>
-      <c r="K70" s="65">
+      <c r="K70" s="64">
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -9554,7 +9823,7 @@
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="74">
+      <c r="A72" s="73">
         <v>45070</v>
       </c>
       <c r="B72" s="60">
@@ -9563,10 +9832,10 @@
       <c r="C72" s="59">
         <v>2</v>
       </c>
-      <c r="D72" s="69" t="s">
+      <c r="D72" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="E72" s="69">
+      <c r="E72" s="68">
         <v>4</v>
       </c>
       <c r="F72" s="59">
@@ -9639,22 +9908,22 @@
       <c r="E74" s="54">
         <v>5</v>
       </c>
-      <c r="F74" s="64">
+      <c r="F74" s="31">
         <v>33</v>
       </c>
-      <c r="G74" s="64">
+      <c r="G74" s="31">
         <v>120</v>
       </c>
-      <c r="H74" s="64">
+      <c r="H74" s="31">
         <v>138</v>
       </c>
-      <c r="I74" s="65">
+      <c r="I74" s="64">
         <v>0.6573</v>
       </c>
-      <c r="J74" s="64">
+      <c r="J74" s="31">
         <v>54.8</v>
       </c>
-      <c r="K74" s="65">
+      <c r="K74" s="64">
         <v>8.1</v>
       </c>
     </row>
@@ -9694,7 +9963,7 @@
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="72">
+      <c r="A76" s="71">
         <v>45070</v>
       </c>
       <c r="B76" s="62">
@@ -9779,22 +10048,22 @@
       <c r="E78" s="54">
         <v>1</v>
       </c>
-      <c r="F78" s="64">
+      <c r="F78" s="31">
         <v>32</v>
       </c>
-      <c r="G78" s="64">
+      <c r="G78" s="31">
         <v>126</v>
       </c>
-      <c r="H78" s="64">
+      <c r="H78" s="31">
         <v>120</v>
       </c>
-      <c r="I78" s="65">
+      <c r="I78" s="64">
         <v>0.63978000000000002</v>
       </c>
-      <c r="J78" s="64">
+      <c r="J78" s="31">
         <v>56.1</v>
       </c>
-      <c r="K78" s="65">
+      <c r="K78" s="64">
         <v>7.8</v>
       </c>
     </row>
@@ -9834,7 +10103,7 @@
       </c>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="74">
+      <c r="A80" s="73">
         <v>45078</v>
       </c>
       <c r="B80" s="60">
@@ -9843,10 +10112,10 @@
       <c r="C80" s="59">
         <v>3</v>
       </c>
-      <c r="D80" s="69" t="s">
+      <c r="D80" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="E80" s="69">
+      <c r="E80" s="68">
         <v>1</v>
       </c>
       <c r="F80" s="59">
@@ -9919,22 +10188,22 @@
       <c r="E82" s="54">
         <v>2</v>
       </c>
-      <c r="F82" s="64">
+      <c r="F82" s="31">
         <v>32</v>
       </c>
-      <c r="G82" s="64">
+      <c r="G82" s="31">
         <v>127.5</v>
       </c>
-      <c r="H82" s="64">
+      <c r="H82" s="31">
         <v>126</v>
       </c>
-      <c r="I82" s="65">
+      <c r="I82" s="64">
         <v>0.63641999999999999</v>
       </c>
-      <c r="J82" s="64">
+      <c r="J82" s="31">
         <v>56.1</v>
       </c>
-      <c r="K82" s="65">
+      <c r="K82" s="64">
         <v>6.9</v>
       </c>
     </row>
@@ -9974,7 +10243,7 @@
       </c>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="74">
+      <c r="A84" s="73">
         <v>45078</v>
       </c>
       <c r="B84" s="60">
@@ -9983,10 +10252,10 @@
       <c r="C84" s="59">
         <v>3</v>
       </c>
-      <c r="D84" s="69" t="s">
+      <c r="D84" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="E84" s="69">
+      <c r="E84" s="68">
         <v>2</v>
       </c>
       <c r="F84" s="59">
@@ -10059,22 +10328,22 @@
       <c r="E86" s="54">
         <v>3</v>
       </c>
-      <c r="F86" s="64">
+      <c r="F86" s="31">
         <v>32.5</v>
       </c>
-      <c r="G86" s="64">
+      <c r="G86" s="31">
         <v>124</v>
       </c>
-      <c r="H86" s="64">
+      <c r="H86" s="31">
         <v>124</v>
       </c>
-      <c r="I86" s="65">
+      <c r="I86" s="64">
         <v>0.64558000000000004</v>
       </c>
-      <c r="J86" s="64">
+      <c r="J86" s="31">
         <v>56</v>
       </c>
-      <c r="K86" s="65">
+      <c r="K86" s="64">
         <v>7.9</v>
       </c>
     </row>
@@ -10114,7 +10383,7 @@
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="74">
+      <c r="A88" s="73">
         <v>45078</v>
       </c>
       <c r="B88" s="60">
@@ -10123,10 +10392,10 @@
       <c r="C88" s="59">
         <v>3</v>
       </c>
-      <c r="D88" s="69" t="s">
+      <c r="D88" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="E88" s="69">
+      <c r="E88" s="68">
         <v>3</v>
       </c>
       <c r="F88" s="59">
@@ -10199,22 +10468,22 @@
       <c r="E90" s="54">
         <v>4</v>
       </c>
-      <c r="F90" s="64">
+      <c r="F90" s="31">
         <v>32</v>
       </c>
-      <c r="G90" s="64">
+      <c r="G90" s="31">
         <v>126</v>
       </c>
-      <c r="H90" s="64">
+      <c r="H90" s="31">
         <v>107</v>
       </c>
-      <c r="I90" s="65">
+      <c r="I90" s="64">
         <v>0.64046999999999998</v>
       </c>
-      <c r="J90" s="64">
+      <c r="J90" s="31">
         <v>56</v>
       </c>
-      <c r="K90" s="65">
+      <c r="K90" s="64">
         <v>7.6</v>
       </c>
     </row>
@@ -10254,7 +10523,7 @@
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="74">
+      <c r="A92" s="73">
         <v>45078</v>
       </c>
       <c r="B92" s="60">
@@ -10263,10 +10532,10 @@
       <c r="C92" s="59">
         <v>3</v>
       </c>
-      <c r="D92" s="69" t="s">
+      <c r="D92" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="E92" s="69">
+      <c r="E92" s="68">
         <v>4</v>
       </c>
       <c r="F92" s="59">
@@ -10339,22 +10608,22 @@
       <c r="E94" s="54">
         <v>5</v>
       </c>
-      <c r="F94" s="64">
+      <c r="F94" s="31">
         <v>31.5</v>
       </c>
-      <c r="G94" s="64">
+      <c r="G94" s="31">
         <v>128.5</v>
       </c>
-      <c r="H94" s="64">
+      <c r="H94" s="31">
         <v>130</v>
       </c>
-      <c r="I94" s="65">
+      <c r="I94" s="64">
         <v>0.63249999999999995</v>
       </c>
-      <c r="J94" s="64">
+      <c r="J94" s="31">
         <v>55.5</v>
       </c>
-      <c r="K94" s="65">
+      <c r="K94" s="64">
         <v>7.6</v>
       </c>
     </row>
@@ -10394,7 +10663,7 @@
       </c>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="74">
+      <c r="A96" s="73">
         <v>45078</v>
       </c>
       <c r="B96" s="62">

--- a/Arduino-Leonardo/Calibration/dataDana/DanaCheck.xlsx
+++ b/Arduino-Leonardo/Calibration/dataDana/DanaCheck.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10800" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="RLMData" sheetId="5" r:id="rId1"/>
@@ -479,7 +479,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1030,15 +1030,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1049,17 +1040,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
@@ -1069,6 +1060,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1385,7 +1385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -5638,7 +5638,7 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:U6"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6043,7 +6043,7 @@
   <dimension ref="A1:BA6"/>
   <sheetViews>
     <sheetView topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:W1"/>
+      <selection activeCell="AR19" sqref="AR19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7981,7 +7981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
@@ -12198,8 +12198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12381,7 +12381,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>2023</v>
@@ -12410,7 +12410,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>2023</v>
@@ -12439,7 +12439,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>2023</v>
@@ -12468,7 +12468,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>2023</v>
@@ -12497,7 +12497,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>2023</v>
@@ -12526,7 +12526,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>2023</v>
@@ -12555,7 +12555,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>2023</v>
@@ -12584,7 +12584,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14">
         <v>2023</v>
@@ -12613,7 +12613,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15">
         <v>2023</v>
@@ -12642,7 +12642,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16">
         <v>2023</v>
@@ -12671,7 +12671,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>2023</v>
@@ -12700,7 +12700,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18">
         <v>2023</v>
@@ -12729,7 +12729,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>2023</v>
@@ -12758,7 +12758,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <v>2023</v>
@@ -12787,7 +12787,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21">
         <v>2023</v>
@@ -12816,7 +12816,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B22">
         <v>2023</v>
@@ -12845,7 +12845,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23">
         <v>2023</v>
@@ -12874,7 +12874,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B24">
         <v>2023</v>
@@ -12903,7 +12903,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B25">
         <v>2023</v>
@@ -12932,7 +12932,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B26">
         <v>2023</v>
@@ -12961,7 +12961,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B27">
         <f>'HFP2'!B2</f>
@@ -12994,7 +12994,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B28">
         <f>'HFP2'!B3</f>
@@ -13027,7 +13027,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B29">
         <f>'HFP2'!B4</f>
@@ -13060,7 +13060,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B30">
         <f>'HFP2'!B5</f>
@@ -13093,7 +13093,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B31">
         <f>'HFP2'!B6</f>
@@ -13126,7 +13126,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B32">
         <f>'HFP2'!B7</f>
@@ -13159,7 +13159,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B33">
         <f>'HFP2'!B8</f>
@@ -13192,7 +13192,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B34">
         <f>'HFP2'!B9</f>
@@ -13225,7 +13225,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <f>'HFP2'!B10</f>
@@ -13258,7 +13258,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B36">
         <f>'HFP2'!B11</f>
@@ -13291,7 +13291,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B37">
         <f>'HFP2'!B12</f>
@@ -13324,7 +13324,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B38">
         <f>'HFP2'!B13</f>
@@ -13357,7 +13357,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B39">
         <f>'HFP2'!B14</f>
@@ -13390,7 +13390,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B40">
         <f>'HFP2'!B15</f>
@@ -13423,7 +13423,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B41">
         <f>'HFP2'!B16</f>
@@ -13456,7 +13456,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B42">
         <v>2023</v>
@@ -13486,7 +13486,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B43">
         <v>2023</v>
@@ -13516,7 +13516,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B44">
         <v>2023</v>
@@ -13546,7 +13546,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B45">
         <v>2023</v>
@@ -13576,7 +13576,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B46">
         <v>2023</v>
@@ -13606,7 +13606,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B47">
         <v>2023</v>
@@ -13636,7 +13636,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B48">
         <v>2023</v>
@@ -13666,7 +13666,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B49">
         <v>2023</v>
@@ -13696,7 +13696,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B50">
         <v>2023</v>
@@ -13726,7 +13726,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B51">
         <v>2023</v>
@@ -13756,7 +13756,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B52">
         <v>2023</v>
@@ -13786,7 +13786,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B53">
         <v>2023</v>
@@ -13816,7 +13816,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B54">
         <v>2023</v>
@@ -13846,7 +13846,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B55">
         <v>2023</v>
@@ -13876,7 +13876,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B56">
         <v>2023</v>
@@ -13906,7 +13906,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B57">
         <v>2023</v>
@@ -13936,7 +13936,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B58">
         <v>2023</v>
@@ -13966,7 +13966,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B59">
         <v>2023</v>
@@ -13996,7 +13996,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B60">
         <v>2023</v>
@@ -14026,7 +14026,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B61">
         <v>2023</v>
@@ -14056,7 +14056,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B62">
         <v>2023</v>
@@ -14086,7 +14086,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B63">
         <v>2023</v>
@@ -14116,7 +14116,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B64">
         <v>2023</v>
@@ -14146,7 +14146,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B65">
         <v>2023</v>
@@ -14176,7 +14176,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B66">
         <v>2023</v>
@@ -14206,7 +14206,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B67">
         <v>2023</v>
@@ -14236,7 +14236,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B68">
         <v>2023</v>
@@ -14266,7 +14266,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B69">
         <v>2023</v>
@@ -14296,7 +14296,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B70">
         <v>2023</v>
@@ -14326,7 +14326,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B71">
         <v>2023</v>
@@ -14356,7 +14356,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B72">
         <v>2023</v>
@@ -14386,7 +14386,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B73">
         <v>2023</v>
@@ -14416,7 +14416,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B74">
         <v>2023</v>
@@ -14446,7 +14446,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B75">
         <v>2023</v>
@@ -14476,7 +14476,7 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B76">
         <v>2023</v>
@@ -14506,7 +14506,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B77">
         <v>2023</v>
@@ -14536,7 +14536,7 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B78">
         <v>2023</v>
@@ -14566,7 +14566,7 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B79">
         <v>2023</v>
@@ -14596,7 +14596,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B80">
         <v>2023</v>
@@ -14626,7 +14626,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B81">
         <v>2023</v>
@@ -14656,7 +14656,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B82">
         <v>2023</v>
@@ -14686,7 +14686,7 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B83">
         <v>2023</v>
@@ -14716,7 +14716,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B84">
         <v>2023</v>
@@ -14746,7 +14746,7 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B85">
         <v>2023</v>
@@ -14776,7 +14776,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B86">
         <v>2023</v>
@@ -14806,7 +14806,7 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B87">
         <v>2023</v>
@@ -14836,7 +14836,7 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B88">
         <v>2023</v>
@@ -14866,7 +14866,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B89">
         <v>2023</v>
@@ -14896,7 +14896,7 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B90">
         <v>2023</v>
@@ -14926,7 +14926,7 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B91">
         <v>2023</v>
@@ -14956,7 +14956,7 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B92">
         <v>2023</v>
@@ -14986,7 +14986,7 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B93">
         <v>2023</v>
@@ -15016,7 +15016,7 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B94">
         <v>2023</v>
@@ -15046,7 +15046,7 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B95">
         <v>2023</v>
@@ -15076,7 +15076,7 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B96">
         <v>2023</v>
@@ -15106,7 +15106,7 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B97">
         <v>2023</v>
@@ -15136,7 +15136,7 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B98">
         <v>2023</v>
@@ -15166,7 +15166,7 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B99">
         <v>2023</v>
@@ -15196,7 +15196,7 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B100">
         <v>2023</v>
@@ -15226,7 +15226,7 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B101">
         <v>2023</v>
@@ -15256,7 +15256,7 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B102">
         <v>2023</v>
@@ -15286,7 +15286,7 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B103">
         <v>2023</v>
@@ -15316,7 +15316,7 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B104">
         <v>2023</v>
@@ -15346,7 +15346,7 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B105">
         <v>2023</v>
@@ -15376,7 +15376,7 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B106">
         <v>2023</v>
@@ -15406,7 +15406,7 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B107">
         <v>2023</v>
@@ -15436,7 +15436,7 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B108">
         <v>2023</v>
@@ -15466,7 +15466,7 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B109">
         <v>2023</v>
@@ -15496,7 +15496,7 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B110">
         <v>2023</v>
@@ -15526,7 +15526,7 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B111">
         <v>2023</v>
@@ -15556,7 +15556,7 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B112">
         <v>2023</v>
@@ -15586,7 +15586,7 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B113">
         <v>2023</v>
@@ -15616,7 +15616,7 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B114">
         <v>2023</v>
@@ -15646,7 +15646,7 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B115">
         <v>2023</v>
@@ -15676,7 +15676,7 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B116">
         <v>2023</v>
@@ -15706,7 +15706,7 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B117">
         <v>2023</v>
@@ -15736,7 +15736,7 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B118">
         <v>2023</v>
@@ -15766,7 +15766,7 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B119">
         <v>2023</v>
@@ -15796,7 +15796,7 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B120">
         <v>2023</v>
@@ -15826,7 +15826,7 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B121">
         <v>2023</v>
@@ -15856,7 +15856,7 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B122">
         <f>'HFP4'!D2</f>
@@ -15888,7 +15888,7 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B123">
         <f>'HFP4'!D3</f>
@@ -15920,7 +15920,7 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B124">
         <f>'HFP4'!D4</f>
@@ -15952,7 +15952,7 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B125">
         <f>'HFP4'!D5</f>
@@ -15984,7 +15984,7 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B126">
         <f>'HFP4'!D6</f>
@@ -16030,39 +16030,39 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="106" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="80" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="80" t="s">
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="45" t="s">
@@ -16543,60 +16543,60 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="I1" s="83" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83">
-        <v>2023</v>
-      </c>
-      <c r="C2" s="83">
-        <v>1</v>
-      </c>
-      <c r="D2" s="83">
+      <c r="B2" s="80">
+        <v>2023</v>
+      </c>
+      <c r="C2" s="80">
+        <v>1</v>
+      </c>
+      <c r="D2" s="80">
         <v>27</v>
       </c>
-      <c r="E2" s="83">
+      <c r="E2" s="80">
         <v>12</v>
       </c>
-      <c r="F2" s="83">
+      <c r="F2" s="80">
         <v>51</v>
       </c>
-      <c r="G2" s="83">
+      <c r="G2" s="80">
         <v>58</v>
       </c>
-      <c r="H2" s="83">
+      <c r="H2" s="80">
         <v>31</v>
       </c>
-      <c r="I2" s="83">
+      <c r="I2" s="80">
         <v>128</v>
       </c>
     </row>
@@ -16978,31 +16978,31 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="84">
-        <v>2023</v>
-      </c>
-      <c r="C16" s="84">
-        <v>1</v>
-      </c>
-      <c r="D16" s="84">
+      <c r="B16" s="81">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="81">
+        <v>1</v>
+      </c>
+      <c r="D16" s="81">
         <v>27</v>
       </c>
-      <c r="E16" s="84">
+      <c r="E16" s="81">
         <v>12</v>
       </c>
-      <c r="F16" s="84">
+      <c r="F16" s="81">
         <v>55</v>
       </c>
-      <c r="G16" s="84">
+      <c r="G16" s="81">
         <v>29</v>
       </c>
-      <c r="H16" s="84">
+      <c r="H16" s="81">
         <v>31</v>
       </c>
-      <c r="I16" s="84">
+      <c r="I16" s="81">
         <v>128</v>
       </c>
     </row>
@@ -17015,7 +17015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
@@ -17027,10 +17027,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="89">
+      <c r="A1" s="86">
         <v>45057</v>
       </c>
-      <c r="B1" s="90">
+      <c r="B1" s="87">
         <v>1</v>
       </c>
       <c r="C1">
@@ -17077,11 +17077,11 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="89">
+      <c r="A2" s="86">
         <f>A1</f>
         <v>45057</v>
       </c>
-      <c r="B2" s="90">
+      <c r="B2" s="87">
         <v>1</v>
       </c>
       <c r="C2">
@@ -17139,10 +17139,10 @@
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="89">
+      <c r="A3" s="86">
         <v>45057</v>
       </c>
-      <c r="B3" s="90">
+      <c r="B3" s="87">
         <v>1</v>
       </c>
       <c r="C3">
@@ -17189,19 +17189,19 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="91">
+      <c r="A4" s="88">
         <v>45057</v>
       </c>
-      <c r="B4" s="92">
-        <v>1</v>
-      </c>
-      <c r="C4" s="93">
-        <v>1</v>
-      </c>
-      <c r="D4" s="94" t="s">
+      <c r="B4" s="89">
+        <v>1</v>
+      </c>
+      <c r="C4" s="90">
+        <v>1</v>
+      </c>
+      <c r="D4" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="94">
+      <c r="E4" s="91">
         <v>1</v>
       </c>
       <c r="F4" s="69">
@@ -17216,10 +17216,10 @@
       <c r="I4" s="70">
         <v>0.62778</v>
       </c>
-      <c r="J4" s="93">
+      <c r="J4" s="90">
         <v>52.7</v>
       </c>
-      <c r="K4" s="94">
+      <c r="K4" s="91">
         <v>8.5</v>
       </c>
       <c r="L4" s="69">
@@ -17234,15 +17234,15 @@
       <c r="O4" s="69">
         <v>128</v>
       </c>
-      <c r="P4" s="95">
+      <c r="P4" s="92">
         <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="89">
+      <c r="A5" s="86">
         <v>45057</v>
       </c>
-      <c r="B5" s="90">
+      <c r="B5" s="87">
         <v>1</v>
       </c>
       <c r="C5">
@@ -17289,11 +17289,11 @@
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="89">
+      <c r="A6" s="86">
         <f>A5</f>
         <v>45057</v>
       </c>
-      <c r="B6" s="90">
+      <c r="B6" s="87">
         <f>B5</f>
         <v>1</v>
       </c>
@@ -17354,10 +17354,10 @@
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="89">
+      <c r="A7" s="86">
         <v>45057</v>
       </c>
-      <c r="B7" s="90">
+      <c r="B7" s="87">
         <v>1</v>
       </c>
       <c r="C7">
@@ -17404,19 +17404,19 @@
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="91">
+      <c r="A8" s="88">
         <v>45057</v>
       </c>
-      <c r="B8" s="92">
-        <v>1</v>
-      </c>
-      <c r="C8" s="93">
-        <v>1</v>
-      </c>
-      <c r="D8" s="94" t="s">
+      <c r="B8" s="89">
+        <v>1</v>
+      </c>
+      <c r="C8" s="90">
+        <v>1</v>
+      </c>
+      <c r="D8" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="94">
+      <c r="E8" s="91">
         <v>2</v>
       </c>
       <c r="F8" s="69">
@@ -17431,10 +17431,10 @@
       <c r="I8" s="70">
         <v>0.62041999999999997</v>
       </c>
-      <c r="J8" s="93">
+      <c r="J8" s="90">
         <v>54.1</v>
       </c>
-      <c r="K8" s="94">
+      <c r="K8" s="91">
         <v>9.1999999999999993</v>
       </c>
       <c r="L8" s="69">
@@ -17449,15 +17449,15 @@
       <c r="O8" s="69">
         <v>128</v>
       </c>
-      <c r="P8" s="95">
+      <c r="P8" s="92">
         <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="89">
+      <c r="A9" s="86">
         <v>45057</v>
       </c>
-      <c r="B9" s="90">
+      <c r="B9" s="87">
         <v>1</v>
       </c>
       <c r="C9">
@@ -17504,11 +17504,11 @@
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="89">
+      <c r="A10" s="86">
         <f>A9</f>
         <v>45057</v>
       </c>
-      <c r="B10" s="90">
+      <c r="B10" s="87">
         <f>B9</f>
         <v>1</v>
       </c>
@@ -17569,10 +17569,10 @@
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="89">
+      <c r="A11" s="86">
         <v>45057</v>
       </c>
-      <c r="B11" s="90">
+      <c r="B11" s="87">
         <v>1</v>
       </c>
       <c r="C11">
@@ -17619,19 +17619,19 @@
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="91">
+      <c r="A12" s="88">
         <v>45057</v>
       </c>
-      <c r="B12" s="92">
-        <v>1</v>
-      </c>
-      <c r="C12" s="93">
-        <v>1</v>
-      </c>
-      <c r="D12" s="94" t="s">
+      <c r="B12" s="89">
+        <v>1</v>
+      </c>
+      <c r="C12" s="90">
+        <v>1</v>
+      </c>
+      <c r="D12" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="94">
+      <c r="E12" s="91">
         <v>3</v>
       </c>
       <c r="F12" s="69">
@@ -17646,10 +17646,10 @@
       <c r="I12" s="70">
         <v>0.63258000000000003</v>
       </c>
-      <c r="J12" s="93">
+      <c r="J12" s="90">
         <v>52.7</v>
       </c>
-      <c r="K12" s="94">
+      <c r="K12" s="91">
         <v>8.3000000000000007</v>
       </c>
       <c r="L12" s="69">
@@ -17664,15 +17664,15 @@
       <c r="O12" s="69">
         <v>128</v>
       </c>
-      <c r="P12" s="95">
+      <c r="P12" s="92">
         <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="89">
+      <c r="A13" s="86">
         <v>45057</v>
       </c>
-      <c r="B13" s="90">
+      <c r="B13" s="87">
         <v>1</v>
       </c>
       <c r="C13">
@@ -17719,11 +17719,11 @@
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="89">
+      <c r="A14" s="86">
         <f>A13</f>
         <v>45057</v>
       </c>
-      <c r="B14" s="90">
+      <c r="B14" s="87">
         <f>B13</f>
         <v>1</v>
       </c>
@@ -17784,10 +17784,10 @@
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="89">
+      <c r="A15" s="86">
         <v>45057</v>
       </c>
-      <c r="B15" s="90">
+      <c r="B15" s="87">
         <v>1</v>
       </c>
       <c r="C15">
@@ -17834,19 +17834,19 @@
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="91">
+      <c r="A16" s="88">
         <v>45057</v>
       </c>
-      <c r="B16" s="92">
-        <v>1</v>
-      </c>
-      <c r="C16" s="93">
-        <v>1</v>
-      </c>
-      <c r="D16" s="94" t="s">
+      <c r="B16" s="89">
+        <v>1</v>
+      </c>
+      <c r="C16" s="90">
+        <v>1</v>
+      </c>
+      <c r="D16" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="94">
+      <c r="E16" s="91">
         <v>4</v>
       </c>
       <c r="F16" s="69">
@@ -17861,10 +17861,10 @@
       <c r="I16" s="70">
         <v>0.62846999999999997</v>
       </c>
-      <c r="J16" s="93">
+      <c r="J16" s="90">
         <v>53.8</v>
       </c>
-      <c r="K16" s="94">
+      <c r="K16" s="91">
         <v>7.1</v>
       </c>
       <c r="L16" s="69">
@@ -17879,15 +17879,15 @@
       <c r="O16" s="69">
         <v>128</v>
       </c>
-      <c r="P16" s="95">
+      <c r="P16" s="92">
         <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="89">
+      <c r="A17" s="86">
         <v>45057</v>
       </c>
-      <c r="B17" s="90">
+      <c r="B17" s="87">
         <v>1</v>
       </c>
       <c r="C17">
@@ -17934,11 +17934,11 @@
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="89">
+      <c r="A18" s="86">
         <f>A17</f>
         <v>45057</v>
       </c>
-      <c r="B18" s="90">
+      <c r="B18" s="87">
         <f>B17</f>
         <v>1</v>
       </c>
@@ -17999,10 +17999,10 @@
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="89">
+      <c r="A19" s="86">
         <v>45057</v>
       </c>
-      <c r="B19" s="90">
+      <c r="B19" s="87">
         <v>1</v>
       </c>
       <c r="C19">
@@ -18049,10 +18049,10 @@
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="96">
+      <c r="A20" s="93">
         <v>45057</v>
       </c>
-      <c r="B20" s="97">
+      <c r="B20" s="94">
         <v>1</v>
       </c>
       <c r="C20" s="74">
@@ -18076,7 +18076,7 @@
       <c r="I20" s="72">
         <v>0.62</v>
       </c>
-      <c r="J20" s="97">
+      <c r="J20" s="94">
         <v>53.5</v>
       </c>
       <c r="K20" s="75">
@@ -18094,15 +18094,15 @@
       <c r="O20" s="72">
         <v>128</v>
       </c>
-      <c r="P20" s="98">
+      <c r="P20" s="95">
         <v>507</v>
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="89">
+      <c r="A21" s="86">
         <v>45070</v>
       </c>
-      <c r="B21" s="90">
+      <c r="B21" s="87">
         <v>2</v>
       </c>
       <c r="C21">
@@ -18126,7 +18126,7 @@
       <c r="I21">
         <v>0.66476000000000002</v>
       </c>
-      <c r="J21" s="90">
+      <c r="J21" s="87">
         <v>55.5</v>
       </c>
       <c r="K21" s="21">
@@ -18149,11 +18149,11 @@
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="89">
+      <c r="A22" s="86">
         <f>A21</f>
         <v>45070</v>
       </c>
-      <c r="B22" s="90">
+      <c r="B22" s="87">
         <f>B21</f>
         <v>2</v>
       </c>
@@ -18214,10 +18214,10 @@
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="89">
+      <c r="A23" s="86">
         <v>45070</v>
       </c>
-      <c r="B23" s="90">
+      <c r="B23" s="87">
         <v>2</v>
       </c>
       <c r="C23">
@@ -18241,7 +18241,7 @@
       <c r="I23">
         <v>0.67476000000000003</v>
       </c>
-      <c r="J23" s="90">
+      <c r="J23" s="87">
         <v>57</v>
       </c>
       <c r="K23" s="21">
@@ -18264,37 +18264,37 @@
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="99">
+      <c r="A24" s="96">
         <v>45070</v>
       </c>
-      <c r="B24" s="100">
-        <v>2</v>
-      </c>
-      <c r="C24" s="101">
-        <v>1</v>
-      </c>
-      <c r="D24" s="94" t="s">
+      <c r="B24" s="97">
+        <v>2</v>
+      </c>
+      <c r="C24" s="98">
+        <v>1</v>
+      </c>
+      <c r="D24" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="94">
-        <v>1</v>
-      </c>
-      <c r="F24" s="101">
+      <c r="E24" s="91">
+        <v>1</v>
+      </c>
+      <c r="F24" s="98">
         <v>31</v>
       </c>
-      <c r="G24" s="101">
+      <c r="G24" s="98">
         <v>130</v>
       </c>
-      <c r="H24" s="101">
+      <c r="H24" s="98">
         <v>93</v>
       </c>
-      <c r="I24" s="101">
+      <c r="I24" s="98">
         <v>0.62875999999999999</v>
       </c>
-      <c r="J24" s="100">
+      <c r="J24" s="97">
         <v>54.4</v>
       </c>
-      <c r="K24" s="102">
+      <c r="K24" s="99">
         <v>8.5</v>
       </c>
       <c r="L24" s="59">
@@ -18309,15 +18309,15 @@
       <c r="O24" s="59">
         <v>128</v>
       </c>
-      <c r="P24" s="103">
+      <c r="P24" s="100">
         <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="89">
+      <c r="A25" s="86">
         <v>45070</v>
       </c>
-      <c r="B25" s="90">
+      <c r="B25" s="87">
         <v>2</v>
       </c>
       <c r="C25">
@@ -18341,7 +18341,7 @@
       <c r="I25">
         <v>0.65690000000000004</v>
       </c>
-      <c r="J25" s="90">
+      <c r="J25" s="87">
         <v>55.5</v>
       </c>
       <c r="K25" s="21">
@@ -18364,11 +18364,11 @@
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="89">
+      <c r="A26" s="86">
         <f>A25</f>
         <v>45070</v>
       </c>
-      <c r="B26" s="90">
+      <c r="B26" s="87">
         <f>B25</f>
         <v>2</v>
       </c>
@@ -18429,10 +18429,10 @@
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="89">
+      <c r="A27" s="86">
         <v>45070</v>
       </c>
-      <c r="B27" s="90">
+      <c r="B27" s="87">
         <v>2</v>
       </c>
       <c r="C27">
@@ -18456,7 +18456,7 @@
       <c r="I27">
         <v>0.67290000000000005</v>
       </c>
-      <c r="J27" s="90">
+      <c r="J27" s="87">
         <v>57.3</v>
       </c>
       <c r="K27" s="21">
@@ -18479,37 +18479,37 @@
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="99">
+      <c r="A28" s="96">
         <v>45070</v>
       </c>
-      <c r="B28" s="100">
-        <v>2</v>
-      </c>
-      <c r="C28" s="101">
-        <v>1</v>
-      </c>
-      <c r="D28" s="94" t="s">
+      <c r="B28" s="97">
+        <v>2</v>
+      </c>
+      <c r="C28" s="98">
+        <v>1</v>
+      </c>
+      <c r="D28" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="E28" s="94">
-        <v>2</v>
-      </c>
-      <c r="F28" s="101">
+      <c r="E28" s="91">
+        <v>2</v>
+      </c>
+      <c r="F28" s="98">
         <v>32</v>
       </c>
-      <c r="G28" s="101">
+      <c r="G28" s="98">
         <v>123</v>
       </c>
-      <c r="H28" s="101">
+      <c r="H28" s="98">
         <v>99</v>
       </c>
-      <c r="I28" s="101">
+      <c r="I28" s="98">
         <v>0.64890000000000003</v>
       </c>
-      <c r="J28" s="100">
+      <c r="J28" s="97">
         <v>54.4</v>
       </c>
-      <c r="K28" s="102">
+      <c r="K28" s="99">
         <v>7.6</v>
       </c>
       <c r="L28" s="59">
@@ -18524,15 +18524,15 @@
       <c r="O28" s="59">
         <v>128</v>
       </c>
-      <c r="P28" s="103">
+      <c r="P28" s="100">
         <v>432</v>
       </c>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="89">
+      <c r="A29" s="86">
         <v>45070</v>
       </c>
-      <c r="B29" s="90">
+      <c r="B29" s="87">
         <v>2</v>
       </c>
       <c r="C29">
@@ -18556,7 +18556,7 @@
       <c r="I29">
         <v>0.65400000000000003</v>
       </c>
-      <c r="J29" s="90">
+      <c r="J29" s="87">
         <v>56.4</v>
       </c>
       <c r="K29" s="21">
@@ -18579,11 +18579,11 @@
       </c>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="89">
+      <c r="A30" s="86">
         <f>A29</f>
         <v>45070</v>
       </c>
-      <c r="B30" s="90">
+      <c r="B30" s="87">
         <f>B29</f>
         <v>2</v>
       </c>
@@ -18644,10 +18644,10 @@
       </c>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="89">
+      <c r="A31" s="86">
         <v>45070</v>
       </c>
-      <c r="B31" s="90">
+      <c r="B31" s="87">
         <v>2</v>
       </c>
       <c r="C31">
@@ -18671,7 +18671,7 @@
       <c r="I31">
         <v>0.72399999999999998</v>
       </c>
-      <c r="J31" s="90">
+      <c r="J31" s="87">
         <v>58.1</v>
       </c>
       <c r="K31" s="21">
@@ -18694,37 +18694,37 @@
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="99">
+      <c r="A32" s="96">
         <v>45070</v>
       </c>
-      <c r="B32" s="100">
-        <v>2</v>
-      </c>
-      <c r="C32" s="101">
-        <v>1</v>
-      </c>
-      <c r="D32" s="94" t="s">
+      <c r="B32" s="97">
+        <v>2</v>
+      </c>
+      <c r="C32" s="98">
+        <v>1</v>
+      </c>
+      <c r="D32" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="94">
+      <c r="E32" s="91">
         <v>3</v>
       </c>
-      <c r="F32" s="101">
+      <c r="F32" s="98">
         <v>31</v>
       </c>
-      <c r="G32" s="101">
+      <c r="G32" s="98">
         <v>130</v>
       </c>
-      <c r="H32" s="101">
+      <c r="H32" s="98">
         <v>104</v>
       </c>
-      <c r="I32" s="101">
+      <c r="I32" s="98">
         <v>0.629</v>
       </c>
-      <c r="J32" s="100">
+      <c r="J32" s="97">
         <v>54.7</v>
       </c>
-      <c r="K32" s="102">
+      <c r="K32" s="99">
         <v>7.4</v>
       </c>
       <c r="L32" s="59">
@@ -18739,15 +18739,15 @@
       <c r="O32" s="59">
         <v>128</v>
       </c>
-      <c r="P32" s="103">
+      <c r="P32" s="100">
         <v>377</v>
       </c>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="89">
+      <c r="A33" s="86">
         <v>45070</v>
       </c>
-      <c r="B33" s="90">
+      <c r="B33" s="87">
         <v>2</v>
       </c>
       <c r="C33">
@@ -18771,7 +18771,7 @@
       <c r="I33">
         <v>0.64897000000000005</v>
       </c>
-      <c r="J33" s="90">
+      <c r="J33" s="87">
         <v>56.1</v>
       </c>
       <c r="K33" s="21">
@@ -18794,11 +18794,11 @@
       </c>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="89">
+      <c r="A34" s="86">
         <f>A33</f>
         <v>45070</v>
       </c>
-      <c r="B34" s="90">
+      <c r="B34" s="87">
         <f>B33</f>
         <v>2</v>
       </c>
@@ -18859,10 +18859,10 @@
       </c>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="89">
+      <c r="A35" s="86">
         <v>45070</v>
       </c>
-      <c r="B35" s="90">
+      <c r="B35" s="87">
         <v>2</v>
       </c>
       <c r="C35">
@@ -18886,7 +18886,7 @@
       <c r="I35">
         <v>0.66996999999999995</v>
       </c>
-      <c r="J35" s="90">
+      <c r="J35" s="87">
         <v>57.8</v>
       </c>
       <c r="K35" s="21">
@@ -18909,37 +18909,37 @@
       </c>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="99">
+      <c r="A36" s="96">
         <v>45070</v>
       </c>
-      <c r="B36" s="100">
-        <v>2</v>
-      </c>
-      <c r="C36" s="101">
-        <v>1</v>
-      </c>
-      <c r="D36" s="94" t="s">
+      <c r="B36" s="97">
+        <v>2</v>
+      </c>
+      <c r="C36" s="98">
+        <v>1</v>
+      </c>
+      <c r="D36" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="94">
+      <c r="E36" s="91">
         <v>4</v>
       </c>
-      <c r="F36" s="101">
+      <c r="F36" s="98">
         <v>32</v>
       </c>
-      <c r="G36" s="101">
+      <c r="G36" s="98">
         <v>126</v>
       </c>
-      <c r="H36" s="101">
+      <c r="H36" s="98">
         <v>121</v>
       </c>
-      <c r="I36" s="101">
+      <c r="I36" s="98">
         <v>0.64097000000000004</v>
       </c>
-      <c r="J36" s="100">
+      <c r="J36" s="97">
         <v>54.1</v>
       </c>
-      <c r="K36" s="102">
+      <c r="K36" s="99">
         <v>7.9</v>
       </c>
       <c r="L36" s="59">
@@ -18954,15 +18954,15 @@
       <c r="O36" s="59">
         <v>128</v>
       </c>
-      <c r="P36" s="103">
+      <c r="P36" s="100">
         <v>457</v>
       </c>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="89">
+      <c r="A37" s="86">
         <v>45070</v>
       </c>
-      <c r="B37" s="90">
+      <c r="B37" s="87">
         <v>2</v>
       </c>
       <c r="C37">
@@ -18986,7 +18986,7 @@
       <c r="I37">
         <v>0.65459999999999996</v>
       </c>
-      <c r="J37" s="90">
+      <c r="J37" s="87">
         <v>55.8</v>
       </c>
       <c r="K37" s="21">
@@ -19009,11 +19009,11 @@
       </c>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="89">
+      <c r="A38" s="86">
         <f>A37</f>
         <v>45070</v>
       </c>
-      <c r="B38" s="90">
+      <c r="B38" s="87">
         <f>B37</f>
         <v>2</v>
       </c>
@@ -19074,10 +19074,10 @@
       </c>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="89">
+      <c r="A39" s="86">
         <v>45070</v>
       </c>
-      <c r="B39" s="90">
+      <c r="B39" s="87">
         <v>2</v>
       </c>
       <c r="C39">
@@ -19101,7 +19101,7 @@
       <c r="I39">
         <v>0.7046</v>
       </c>
-      <c r="J39" s="90">
+      <c r="J39" s="87">
         <v>57.5</v>
       </c>
       <c r="K39" s="21">
@@ -19124,10 +19124,10 @@
       </c>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="96">
+      <c r="A40" s="93">
         <v>45070</v>
       </c>
-      <c r="B40" s="97">
+      <c r="B40" s="94">
         <v>2</v>
       </c>
       <c r="C40" s="74">
@@ -19151,7 +19151,7 @@
       <c r="I40" s="74">
         <v>0.62460000000000004</v>
       </c>
-      <c r="J40" s="97">
+      <c r="J40" s="94">
         <v>53.2</v>
       </c>
       <c r="K40" s="75">
@@ -19169,15 +19169,15 @@
       <c r="O40" s="52">
         <v>128</v>
       </c>
-      <c r="P40" s="98">
+      <c r="P40" s="95">
         <v>518</v>
       </c>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="89">
+      <c r="A41" s="86">
         <v>45070</v>
       </c>
-      <c r="B41" s="90">
+      <c r="B41" s="87">
         <v>2</v>
       </c>
       <c r="C41">
@@ -19201,7 +19201,7 @@
       <c r="I41">
         <v>0.67201</v>
       </c>
-      <c r="J41" s="90">
+      <c r="J41" s="87">
         <v>55</v>
       </c>
       <c r="K41" s="21">
@@ -19224,11 +19224,11 @@
       </c>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="89">
+      <c r="A42" s="86">
         <f>A41</f>
         <v>45070</v>
       </c>
-      <c r="B42" s="90">
+      <c r="B42" s="87">
         <f>B41</f>
         <v>2</v>
       </c>
@@ -19289,10 +19289,10 @@
       </c>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="89">
+      <c r="A43" s="86">
         <v>45070</v>
       </c>
-      <c r="B43" s="90">
+      <c r="B43" s="87">
         <v>2</v>
       </c>
       <c r="C43">
@@ -19316,7 +19316,7 @@
       <c r="I43">
         <v>0.67901</v>
       </c>
-      <c r="J43" s="90">
+      <c r="J43" s="87">
         <v>56.7</v>
       </c>
       <c r="K43" s="21">
@@ -19339,37 +19339,37 @@
       </c>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="99">
+      <c r="A44" s="96">
         <v>45070</v>
       </c>
-      <c r="B44" s="100">
-        <v>2</v>
-      </c>
-      <c r="C44" s="101">
-        <v>2</v>
-      </c>
-      <c r="D44" s="94" t="s">
+      <c r="B44" s="97">
+        <v>2</v>
+      </c>
+      <c r="C44" s="98">
+        <v>2</v>
+      </c>
+      <c r="D44" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="E44" s="94">
-        <v>1</v>
-      </c>
-      <c r="F44" s="101">
+      <c r="E44" s="91">
+        <v>1</v>
+      </c>
+      <c r="F44" s="98">
         <v>32</v>
       </c>
-      <c r="G44" s="101">
+      <c r="G44" s="98">
         <v>124</v>
       </c>
-      <c r="H44" s="101">
+      <c r="H44" s="98">
         <v>112</v>
       </c>
-      <c r="I44" s="101">
+      <c r="I44" s="98">
         <v>0.64500999999999997</v>
       </c>
-      <c r="J44" s="100">
+      <c r="J44" s="97">
         <v>53.8</v>
       </c>
-      <c r="K44" s="102">
+      <c r="K44" s="99">
         <v>9</v>
       </c>
       <c r="L44" s="59">
@@ -19384,15 +19384,15 @@
       <c r="O44" s="59">
         <v>128</v>
       </c>
-      <c r="P44" s="103">
+      <c r="P44" s="100">
         <v>337</v>
       </c>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="89">
+      <c r="A45" s="86">
         <v>45070</v>
       </c>
-      <c r="B45" s="90">
+      <c r="B45" s="87">
         <v>2</v>
       </c>
       <c r="C45">
@@ -19416,7 +19416,7 @@
       <c r="I45">
         <v>0.65869</v>
       </c>
-      <c r="J45" s="90">
+      <c r="J45" s="87">
         <v>54.7</v>
       </c>
       <c r="K45" s="21">
@@ -19439,11 +19439,11 @@
       </c>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="89">
+      <c r="A46" s="86">
         <f>A45</f>
         <v>45070</v>
       </c>
-      <c r="B46" s="90">
+      <c r="B46" s="87">
         <f>B45</f>
         <v>2</v>
       </c>
@@ -19504,10 +19504,10 @@
       </c>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="89">
+      <c r="A47" s="86">
         <v>45070</v>
       </c>
-      <c r="B47" s="90">
+      <c r="B47" s="87">
         <v>2</v>
       </c>
       <c r="C47">
@@ -19531,7 +19531,7 @@
       <c r="I47">
         <v>0.68369000000000002</v>
       </c>
-      <c r="J47" s="90">
+      <c r="J47" s="87">
         <v>57.3</v>
       </c>
       <c r="K47" s="21">
@@ -19554,37 +19554,37 @@
       </c>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="99">
+      <c r="A48" s="96">
         <v>45070</v>
       </c>
-      <c r="B48" s="100">
-        <v>2</v>
-      </c>
-      <c r="C48" s="101">
-        <v>2</v>
-      </c>
-      <c r="D48" s="94" t="s">
+      <c r="B48" s="97">
+        <v>2</v>
+      </c>
+      <c r="C48" s="98">
+        <v>2</v>
+      </c>
+      <c r="D48" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="E48" s="94">
-        <v>2</v>
-      </c>
-      <c r="F48" s="101">
+      <c r="E48" s="91">
+        <v>2</v>
+      </c>
+      <c r="F48" s="98">
         <v>32</v>
       </c>
-      <c r="G48" s="101">
+      <c r="G48" s="98">
         <v>124</v>
       </c>
-      <c r="H48" s="101">
+      <c r="H48" s="98">
         <v>126</v>
       </c>
-      <c r="I48" s="101">
+      <c r="I48" s="98">
         <v>0.64468999999999999</v>
       </c>
-      <c r="J48" s="100">
+      <c r="J48" s="97">
         <v>52.1</v>
       </c>
-      <c r="K48" s="102">
+      <c r="K48" s="99">
         <v>8.3000000000000007</v>
       </c>
       <c r="L48" s="59">
@@ -19599,15 +19599,15 @@
       <c r="O48" s="59">
         <v>128</v>
       </c>
-      <c r="P48" s="103">
+      <c r="P48" s="100">
         <v>352</v>
       </c>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="89">
+      <c r="A49" s="86">
         <v>45070</v>
       </c>
-      <c r="B49" s="90">
+      <c r="B49" s="87">
         <v>2</v>
       </c>
       <c r="C49">
@@ -19631,7 +19631,7 @@
       <c r="I49">
         <v>0.66191</v>
       </c>
-      <c r="J49" s="90">
+      <c r="J49" s="87">
         <v>55</v>
       </c>
       <c r="K49" s="21">
@@ -19654,11 +19654,11 @@
       </c>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="89">
+      <c r="A50" s="86">
         <f>A49</f>
         <v>45070</v>
       </c>
-      <c r="B50" s="90">
+      <c r="B50" s="87">
         <f>B49</f>
         <v>2</v>
       </c>
@@ -19719,10 +19719,10 @@
       </c>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="89">
+      <c r="A51" s="86">
         <v>45070</v>
       </c>
-      <c r="B51" s="90">
+      <c r="B51" s="87">
         <v>2</v>
       </c>
       <c r="C51">
@@ -19746,7 +19746,7 @@
       <c r="I51">
         <v>0.68391000000000002</v>
       </c>
-      <c r="J51" s="90">
+      <c r="J51" s="87">
         <v>56.7</v>
       </c>
       <c r="K51" s="21">
@@ -19769,37 +19769,37 @@
       </c>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="99">
+      <c r="A52" s="96">
         <v>45070</v>
       </c>
-      <c r="B52" s="100">
-        <v>2</v>
-      </c>
-      <c r="C52" s="101">
-        <v>2</v>
-      </c>
-      <c r="D52" s="94" t="s">
+      <c r="B52" s="97">
+        <v>2</v>
+      </c>
+      <c r="C52" s="98">
+        <v>2</v>
+      </c>
+      <c r="D52" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="E52" s="94">
+      <c r="E52" s="91">
         <v>3</v>
       </c>
-      <c r="F52" s="101">
+      <c r="F52" s="98">
         <v>32</v>
       </c>
-      <c r="G52" s="101">
+      <c r="G52" s="98">
         <v>125</v>
       </c>
-      <c r="H52" s="101">
+      <c r="H52" s="98">
         <v>126</v>
       </c>
-      <c r="I52" s="101">
+      <c r="I52" s="98">
         <v>0.64390999999999998</v>
       </c>
-      <c r="J52" s="100">
+      <c r="J52" s="97">
         <v>52.7</v>
       </c>
-      <c r="K52" s="102">
+      <c r="K52" s="99">
         <v>8.1</v>
       </c>
       <c r="L52" s="59">
@@ -19814,15 +19814,15 @@
       <c r="O52" s="59">
         <v>128</v>
       </c>
-      <c r="P52" s="103">
+      <c r="P52" s="100">
         <v>377</v>
       </c>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="89">
+      <c r="A53" s="86">
         <v>45070</v>
       </c>
-      <c r="B53" s="90">
+      <c r="B53" s="87">
         <v>2</v>
       </c>
       <c r="C53">
@@ -19846,7 +19846,7 @@
       <c r="I53">
         <v>0.66579999999999995</v>
       </c>
-      <c r="J53" s="90">
+      <c r="J53" s="87">
         <v>55</v>
       </c>
       <c r="K53" s="21">
@@ -19869,11 +19869,11 @@
       </c>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="89">
+      <c r="A54" s="86">
         <f>A53</f>
         <v>45070</v>
       </c>
-      <c r="B54" s="90">
+      <c r="B54" s="87">
         <f>B53</f>
         <v>2</v>
       </c>
@@ -19934,10 +19934,10 @@
       </c>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="89">
+      <c r="A55" s="86">
         <v>45070</v>
       </c>
-      <c r="B55" s="90">
+      <c r="B55" s="87">
         <v>2</v>
       </c>
       <c r="C55">
@@ -19961,7 +19961,7 @@
       <c r="I55">
         <v>0.68279999999999996</v>
       </c>
-      <c r="J55" s="90">
+      <c r="J55" s="87">
         <v>57.5</v>
       </c>
       <c r="K55" s="21">
@@ -19984,37 +19984,37 @@
       </c>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="99">
+      <c r="A56" s="96">
         <v>45070</v>
       </c>
-      <c r="B56" s="100">
-        <v>2</v>
-      </c>
-      <c r="C56" s="101">
-        <v>2</v>
-      </c>
-      <c r="D56" s="94" t="s">
+      <c r="B56" s="97">
+        <v>2</v>
+      </c>
+      <c r="C56" s="98">
+        <v>2</v>
+      </c>
+      <c r="D56" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="E56" s="94">
+      <c r="E56" s="91">
         <v>4</v>
       </c>
-      <c r="F56" s="101">
+      <c r="F56" s="98">
         <v>32</v>
       </c>
-      <c r="G56" s="101">
+      <c r="G56" s="98">
         <v>123</v>
       </c>
-      <c r="H56" s="101">
+      <c r="H56" s="98">
         <v>136</v>
       </c>
-      <c r="I56" s="101">
+      <c r="I56" s="98">
         <v>0.64780000000000004</v>
       </c>
-      <c r="J56" s="100">
+      <c r="J56" s="97">
         <v>53.5</v>
       </c>
-      <c r="K56" s="102">
+      <c r="K56" s="99">
         <v>8.3000000000000007</v>
       </c>
       <c r="L56" s="59">
@@ -20029,15 +20029,15 @@
       <c r="O56" s="59">
         <v>128</v>
       </c>
-      <c r="P56" s="103">
+      <c r="P56" s="100">
         <v>387</v>
       </c>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="89">
+      <c r="A57" s="86">
         <v>45070</v>
       </c>
-      <c r="B57" s="90">
+      <c r="B57" s="87">
         <v>2</v>
       </c>
       <c r="C57">
@@ -20061,7 +20061,7 @@
       <c r="I57">
         <v>0.66930000000000001</v>
       </c>
-      <c r="J57" s="90">
+      <c r="J57" s="87">
         <v>55</v>
       </c>
       <c r="K57" s="21">
@@ -20084,11 +20084,11 @@
       </c>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="89">
+      <c r="A58" s="86">
         <f>A57</f>
         <v>45070</v>
       </c>
-      <c r="B58" s="90">
+      <c r="B58" s="87">
         <f>B57</f>
         <v>2</v>
       </c>
@@ -20149,10 +20149,10 @@
       </c>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="89">
+      <c r="A59" s="86">
         <v>45070</v>
       </c>
-      <c r="B59" s="90">
+      <c r="B59" s="87">
         <v>2</v>
       </c>
       <c r="C59">
@@ -20176,7 +20176,7 @@
       <c r="I59">
         <v>0.67730000000000001</v>
       </c>
-      <c r="J59" s="90">
+      <c r="J59" s="87">
         <v>56.4</v>
       </c>
       <c r="K59" s="21">
@@ -20199,10 +20199,10 @@
       </c>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="96">
+      <c r="A60" s="93">
         <v>45070</v>
       </c>
-      <c r="B60" s="97">
+      <c r="B60" s="94">
         <v>2</v>
       </c>
       <c r="C60" s="74">
@@ -20226,7 +20226,7 @@
       <c r="I60" s="74">
         <v>0.63729999999999998</v>
       </c>
-      <c r="J60" s="97">
+      <c r="J60" s="94">
         <v>53.2</v>
       </c>
       <c r="K60" s="75">
@@ -20244,15 +20244,15 @@
       <c r="O60" s="52">
         <v>128</v>
       </c>
-      <c r="P60" s="98">
+      <c r="P60" s="95">
         <v>402</v>
       </c>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="89">
+      <c r="A61" s="86">
         <v>45078</v>
       </c>
-      <c r="B61" s="104">
+      <c r="B61" s="101">
         <v>2</v>
       </c>
       <c r="C61" s="38">
@@ -20276,7 +20276,7 @@
       <c r="I61" s="38">
         <v>0.64078000000000002</v>
       </c>
-      <c r="J61" s="104">
+      <c r="J61" s="101">
         <v>56.4</v>
       </c>
       <c r="K61" s="37">
@@ -20299,11 +20299,11 @@
       </c>
     </row>
     <row r="62" spans="1:16">
-      <c r="A62" s="89">
+      <c r="A62" s="86">
         <f>A61</f>
         <v>45078</v>
       </c>
-      <c r="B62" s="90">
+      <c r="B62" s="87">
         <v>2</v>
       </c>
       <c r="C62">
@@ -20362,10 +20362,10 @@
       </c>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="89">
+      <c r="A63" s="86">
         <v>45078</v>
       </c>
-      <c r="B63" s="104">
+      <c r="B63" s="101">
         <v>2</v>
       </c>
       <c r="C63" s="38">
@@ -20389,7 +20389,7 @@
       <c r="I63" s="38">
         <v>0.65178000000000003</v>
       </c>
-      <c r="J63" s="104">
+      <c r="J63" s="101">
         <v>57.8</v>
       </c>
       <c r="K63" s="37">
@@ -20412,60 +20412,60 @@
       </c>
     </row>
     <row r="64" spans="1:16">
-      <c r="A64" s="99">
+      <c r="A64" s="96">
         <v>45078</v>
       </c>
-      <c r="B64" s="105">
-        <v>2</v>
-      </c>
-      <c r="C64" s="106">
+      <c r="B64" s="102">
+        <v>2</v>
+      </c>
+      <c r="C64" s="103">
         <v>3</v>
       </c>
-      <c r="D64" s="94" t="s">
+      <c r="D64" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="E64" s="94">
-        <v>1</v>
-      </c>
-      <c r="F64" s="106">
+      <c r="E64" s="91">
+        <v>1</v>
+      </c>
+      <c r="F64" s="103">
         <v>31</v>
       </c>
-      <c r="G64" s="106">
+      <c r="G64" s="103">
         <v>130</v>
       </c>
-      <c r="H64" s="106">
+      <c r="H64" s="103">
         <v>120</v>
       </c>
-      <c r="I64" s="106">
+      <c r="I64" s="103">
         <v>0.62778</v>
       </c>
-      <c r="J64" s="105">
+      <c r="J64" s="102">
         <v>54.4</v>
       </c>
-      <c r="K64" s="107">
+      <c r="K64" s="104">
         <v>7.8</v>
       </c>
-      <c r="L64" s="106">
+      <c r="L64" s="103">
         <v>23</v>
       </c>
-      <c r="M64" s="106">
-        <v>128</v>
-      </c>
-      <c r="N64" s="106">
+      <c r="M64" s="103">
+        <v>128</v>
+      </c>
+      <c r="N64" s="103">
         <v>35</v>
       </c>
-      <c r="O64" s="106">
-        <v>128</v>
-      </c>
-      <c r="P64" s="103">
+      <c r="O64" s="103">
+        <v>128</v>
+      </c>
+      <c r="P64" s="100">
         <v>392</v>
       </c>
     </row>
     <row r="65" spans="1:16">
-      <c r="A65" s="89">
+      <c r="A65" s="86">
         <v>45078</v>
       </c>
-      <c r="B65" s="104">
+      <c r="B65" s="101">
         <v>2</v>
       </c>
       <c r="C65" s="38">
@@ -20489,7 +20489,7 @@
       <c r="I65" s="38">
         <v>0.63341999999999998</v>
       </c>
-      <c r="J65" s="104">
+      <c r="J65" s="101">
         <v>56.7</v>
       </c>
       <c r="K65" s="37">
@@ -20512,11 +20512,11 @@
       </c>
     </row>
     <row r="66" spans="1:16">
-      <c r="A66" s="89">
+      <c r="A66" s="86">
         <f>A65</f>
         <v>45078</v>
       </c>
-      <c r="B66" s="90">
+      <c r="B66" s="87">
         <v>2</v>
       </c>
       <c r="C66">
@@ -20575,10 +20575,10 @@
       </c>
     </row>
     <row r="67" spans="1:16">
-      <c r="A67" s="89">
+      <c r="A67" s="86">
         <v>45078</v>
       </c>
-      <c r="B67" s="104">
+      <c r="B67" s="101">
         <v>2</v>
       </c>
       <c r="C67" s="38">
@@ -20602,7 +20602,7 @@
       <c r="I67" s="38">
         <v>0.65242</v>
       </c>
-      <c r="J67" s="104">
+      <c r="J67" s="101">
         <v>57.8</v>
       </c>
       <c r="K67" s="37">
@@ -20625,60 +20625,60 @@
       </c>
     </row>
     <row r="68" spans="1:16">
-      <c r="A68" s="99">
+      <c r="A68" s="96">
         <v>45078</v>
       </c>
-      <c r="B68" s="105">
-        <v>2</v>
-      </c>
-      <c r="C68" s="106">
+      <c r="B68" s="102">
+        <v>2</v>
+      </c>
+      <c r="C68" s="103">
         <v>3</v>
       </c>
-      <c r="D68" s="94" t="s">
+      <c r="D68" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="E68" s="94">
-        <v>2</v>
-      </c>
-      <c r="F68" s="106">
+      <c r="E68" s="91">
+        <v>2</v>
+      </c>
+      <c r="F68" s="103">
         <v>31</v>
       </c>
-      <c r="G68" s="106">
+      <c r="G68" s="103">
         <v>133</v>
       </c>
-      <c r="H68" s="106">
+      <c r="H68" s="103">
         <v>126</v>
       </c>
-      <c r="I68" s="106">
+      <c r="I68" s="103">
         <v>0.62041999999999997</v>
       </c>
-      <c r="J68" s="105">
+      <c r="J68" s="102">
         <v>54.4</v>
       </c>
-      <c r="K68" s="107">
+      <c r="K68" s="104">
         <v>6.9</v>
       </c>
-      <c r="L68" s="106">
+      <c r="L68" s="103">
         <v>25</v>
       </c>
-      <c r="M68" s="106">
-        <v>128</v>
-      </c>
-      <c r="N68" s="106">
+      <c r="M68" s="103">
+        <v>128</v>
+      </c>
+      <c r="N68" s="103">
         <v>31</v>
       </c>
-      <c r="O68" s="106">
-        <v>128</v>
-      </c>
-      <c r="P68" s="103">
+      <c r="O68" s="103">
+        <v>128</v>
+      </c>
+      <c r="P68" s="100">
         <v>417</v>
       </c>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="89">
+      <c r="A69" s="86">
         <v>45078</v>
       </c>
-      <c r="B69" s="104">
+      <c r="B69" s="101">
         <v>2</v>
       </c>
       <c r="C69" s="38">
@@ -20702,7 +20702,7 @@
       <c r="I69" s="38">
         <v>0.65258000000000005</v>
       </c>
-      <c r="J69" s="104">
+      <c r="J69" s="101">
         <v>56.1</v>
       </c>
       <c r="K69" s="37">
@@ -20725,11 +20725,11 @@
       </c>
     </row>
     <row r="70" spans="1:16">
-      <c r="A70" s="89">
+      <c r="A70" s="86">
         <f>A69</f>
         <v>45078</v>
       </c>
-      <c r="B70" s="90">
+      <c r="B70" s="87">
         <v>2</v>
       </c>
       <c r="C70">
@@ -20788,10 +20788,10 @@
       </c>
     </row>
     <row r="71" spans="1:16">
-      <c r="A71" s="89">
+      <c r="A71" s="86">
         <v>45078</v>
       </c>
-      <c r="B71" s="104">
+      <c r="B71" s="101">
         <v>2</v>
       </c>
       <c r="C71" s="38">
@@ -20815,7 +20815,7 @@
       <c r="I71" s="38">
         <v>0.65858000000000005</v>
       </c>
-      <c r="J71" s="104">
+      <c r="J71" s="101">
         <v>57.3</v>
       </c>
       <c r="K71" s="37">
@@ -20838,60 +20838,60 @@
       </c>
     </row>
     <row r="72" spans="1:16">
-      <c r="A72" s="99">
+      <c r="A72" s="96">
         <v>45078</v>
       </c>
-      <c r="B72" s="105">
-        <v>2</v>
-      </c>
-      <c r="C72" s="106">
+      <c r="B72" s="102">
+        <v>2</v>
+      </c>
+      <c r="C72" s="103">
         <v>3</v>
       </c>
-      <c r="D72" s="94" t="s">
+      <c r="D72" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="E72" s="94">
+      <c r="E72" s="91">
         <v>3</v>
       </c>
-      <c r="F72" s="106">
+      <c r="F72" s="103">
         <v>32</v>
       </c>
-      <c r="G72" s="106">
+      <c r="G72" s="103">
         <v>129</v>
       </c>
-      <c r="H72" s="106">
+      <c r="H72" s="103">
         <v>124</v>
       </c>
-      <c r="I72" s="106">
+      <c r="I72" s="103">
         <v>0.63258000000000003</v>
       </c>
-      <c r="J72" s="105">
+      <c r="J72" s="102">
         <v>54.7</v>
       </c>
-      <c r="K72" s="107">
+      <c r="K72" s="104">
         <v>7.9</v>
       </c>
-      <c r="L72" s="106">
+      <c r="L72" s="103">
         <v>29</v>
       </c>
-      <c r="M72" s="106">
-        <v>128</v>
-      </c>
-      <c r="N72" s="106">
+      <c r="M72" s="103">
+        <v>128</v>
+      </c>
+      <c r="N72" s="103">
         <v>37</v>
       </c>
-      <c r="O72" s="106">
-        <v>128</v>
-      </c>
-      <c r="P72" s="103">
+      <c r="O72" s="103">
+        <v>128</v>
+      </c>
+      <c r="P72" s="100">
         <v>427</v>
       </c>
     </row>
     <row r="73" spans="1:16">
-      <c r="A73" s="89">
+      <c r="A73" s="86">
         <v>45078</v>
       </c>
-      <c r="B73" s="104">
+      <c r="B73" s="101">
         <v>2</v>
       </c>
       <c r="C73" s="38">
@@ -20915,7 +20915,7 @@
       <c r="I73" s="38">
         <v>0.63946999999999998</v>
       </c>
-      <c r="J73" s="104">
+      <c r="J73" s="101">
         <v>55.5</v>
       </c>
       <c r="K73" s="37">
@@ -20938,11 +20938,11 @@
       </c>
     </row>
     <row r="74" spans="1:16">
-      <c r="A74" s="89">
+      <c r="A74" s="86">
         <f>A73</f>
         <v>45078</v>
       </c>
-      <c r="B74" s="90">
+      <c r="B74" s="87">
         <v>2</v>
       </c>
       <c r="C74">
@@ -21001,10 +21001,10 @@
       </c>
     </row>
     <row r="75" spans="1:16">
-      <c r="A75" s="89">
+      <c r="A75" s="86">
         <v>45078</v>
       </c>
-      <c r="B75" s="104">
+      <c r="B75" s="101">
         <v>2</v>
       </c>
       <c r="C75" s="38">
@@ -21028,7 +21028,7 @@
       <c r="I75" s="38">
         <v>0.65246999999999999</v>
       </c>
-      <c r="J75" s="104">
+      <c r="J75" s="101">
         <v>57.3</v>
       </c>
       <c r="K75" s="37">
@@ -21051,60 +21051,60 @@
       </c>
     </row>
     <row r="76" spans="1:16">
-      <c r="A76" s="99">
+      <c r="A76" s="96">
         <v>45078</v>
       </c>
-      <c r="B76" s="105">
-        <v>2</v>
-      </c>
-      <c r="C76" s="106">
+      <c r="B76" s="102">
+        <v>2</v>
+      </c>
+      <c r="C76" s="103">
         <v>3</v>
       </c>
-      <c r="D76" s="94" t="s">
+      <c r="D76" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="E76" s="94">
+      <c r="E76" s="91">
         <v>4</v>
       </c>
-      <c r="F76" s="106">
+      <c r="F76" s="103">
         <v>31</v>
       </c>
-      <c r="G76" s="106">
+      <c r="G76" s="103">
         <v>130</v>
       </c>
-      <c r="H76" s="106">
+      <c r="H76" s="103">
         <v>107</v>
       </c>
-      <c r="I76" s="106">
+      <c r="I76" s="103">
         <v>0.62846999999999997</v>
       </c>
-      <c r="J76" s="105">
+      <c r="J76" s="102">
         <v>54.7</v>
       </c>
-      <c r="K76" s="107">
+      <c r="K76" s="104">
         <v>7.6</v>
       </c>
-      <c r="L76" s="106">
+      <c r="L76" s="103">
         <v>28</v>
       </c>
-      <c r="M76" s="106">
-        <v>128</v>
-      </c>
-      <c r="N76" s="106">
+      <c r="M76" s="103">
+        <v>128</v>
+      </c>
+      <c r="N76" s="103">
         <v>34</v>
       </c>
-      <c r="O76" s="106">
-        <v>128</v>
-      </c>
-      <c r="P76" s="103">
+      <c r="O76" s="103">
+        <v>128</v>
+      </c>
+      <c r="P76" s="100">
         <v>462</v>
       </c>
     </row>
     <row r="77" spans="1:16">
-      <c r="A77" s="89">
+      <c r="A77" s="86">
         <v>45078</v>
       </c>
-      <c r="B77" s="104">
+      <c r="B77" s="101">
         <v>2</v>
       </c>
       <c r="C77" s="38">
@@ -21128,7 +21128,7 @@
       <c r="I77" s="38">
         <v>0.63</v>
       </c>
-      <c r="J77" s="104">
+      <c r="J77" s="101">
         <v>56.1</v>
       </c>
       <c r="K77" s="37">
@@ -21151,11 +21151,11 @@
       </c>
     </row>
     <row r="78" spans="1:16">
-      <c r="A78" s="89">
+      <c r="A78" s="86">
         <f>A77</f>
         <v>45078</v>
       </c>
-      <c r="B78" s="90">
+      <c r="B78" s="87">
         <v>2</v>
       </c>
       <c r="C78">
@@ -21214,10 +21214,10 @@
       </c>
     </row>
     <row r="79" spans="1:16">
-      <c r="A79" s="89">
+      <c r="A79" s="86">
         <v>45078</v>
       </c>
-      <c r="B79" s="104">
+      <c r="B79" s="101">
         <v>2</v>
       </c>
       <c r="C79" s="38">
@@ -21241,7 +21241,7 @@
       <c r="I79" s="38">
         <v>0.64500000000000002</v>
       </c>
-      <c r="J79" s="104">
+      <c r="J79" s="101">
         <v>57.5</v>
       </c>
       <c r="K79" s="37">
@@ -21264,10 +21264,10 @@
       </c>
     </row>
     <row r="80" spans="1:16">
-      <c r="A80" s="99">
+      <c r="A80" s="96">
         <v>45078</v>
       </c>
-      <c r="B80" s="108">
+      <c r="B80" s="105">
         <v>2</v>
       </c>
       <c r="C80" s="45">
@@ -21291,7 +21291,7 @@
       <c r="I80" s="45">
         <v>0.62</v>
       </c>
-      <c r="J80" s="108">
+      <c r="J80" s="105">
         <v>53.5</v>
       </c>
       <c r="K80" s="44">
@@ -21309,7 +21309,7 @@
       <c r="O80" s="45">
         <v>128</v>
       </c>
-      <c r="P80" s="98">
+      <c r="P80" s="95">
         <v>468</v>
       </c>
     </row>
